--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\BerrocalF\XenProfile\Desktop\SLFRF P&amp;E Quarter 2 Bulk Files\UpdateTemplates.6.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2F4AAE-6AAC-4E0C-ABE1-C132F77F09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AC2F4AAE-6AAC-4E0C-ABE1-C132F77F09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB4C417-699E-44EC-BA96-9005BA37EDCA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,12 +358,6 @@
     <t>Template Name: SLFRF Bulk File Upload Template for EC 2.36</t>
   </si>
   <si>
-    <t>Q2_2022_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q2_2022_Expenditures__c</t>
-  </si>
-  <si>
     <t>The amount of the adopted budget  for this project. 
 Currency field.
 DO NOT include a "$" sign or commas "," when entering Amounts. 
@@ -431,6 +425,12 @@
   </si>
   <si>
     <t>Version: 2022.06.21</t>
+  </si>
+  <si>
+    <t>Q3_2022_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q3_2022_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -592,51 +592,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,18 +866,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.5" style="3" customWidth="1"/>
-    <col min="2" max="5" width="35.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="35.5" style="5" customWidth="1"/>
-    <col min="8" max="15" width="35.5" style="3" customWidth="1"/>
-    <col min="16" max="17" width="35.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
     <col min="20" max="23" width="25.125" style="3" customWidth="1"/>
     <col min="24" max="24" width="30.75" style="3" customWidth="1"/>
@@ -906,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -977,10 +956,10 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="210.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1013,91 +992,91 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>84</v>
+      <c r="G4" s="5" t="s">
+        <v>82</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>74</v>
+      <c r="K4" s="5" t="s">
+        <v>87</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>75</v>
+      <c r="L4" s="5" t="s">
+        <v>88</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AD4" s="2"/>
@@ -1105,91 +1084,91 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AA5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AB5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AC5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="AD5" s="2"/>
@@ -1197,91 +1176,91 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>85</v>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AD6" s="4"/>
@@ -1289,91 +1268,91 @@
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:32" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>86</v>
+      <c r="F7" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>87</v>
+      <c r="G7" s="7" t="s">
+        <v>85</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="K7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="O7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="13" t="s">
+      <c r="T7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AD7" s="2"/>
@@ -1382,12 +1361,12 @@
     </row>
     <row r="8" spans="1:32" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1396,7 +1375,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1420,8 +1399,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -35150,6 +35129,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -35366,22 +35360,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35398,29 +35402,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AC2F4AAE-6AAC-4E0C-ABE1-C132F77F09A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB4C417-699E-44EC-BA96-9005BA37EDCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF10983-1B32-415D-B08A-7C5B7FD19BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,13 +424,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2022.06.21</t>
+    <t>Q4_2022_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2022_Obligations__c</t>
+    <t>Q4_2022_Expenditures__c</t>
   </si>
   <si>
-    <t>Q3_2022_Expenditures__c</t>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -866,9 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -885,7 +883,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1023,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>

--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF10983-1B32-415D-B08A-7C5B7FD19BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF23211-66C0-4927-AFD2-D69A47A91C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,13 +424,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q4_2022_Obligations__c</t>
+    <t>Version: 2023.4.18</t>
   </si>
   <si>
-    <t>Q4_2022_Expenditures__c</t>
+    <t>Q1_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2022.12.13</t>
+    <t>Q1_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -883,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1021,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
@@ -35127,18 +35129,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35359,6 +35361,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -35371,14 +35381,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF23211-66C0-4927-AFD2-D69A47A91C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E597F-E418-48E2-BEA8-E3F7823AE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30270" yWindow="-450" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,13 +424,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2023.4.18</t>
+    <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2023_Obligations__c</t>
+    <t>Q2_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q1_2023_Expenditures__c</t>
+    <t>Q2_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35129,18 +35129,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35361,14 +35361,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -35381,6 +35373,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\update q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E597F-E418-48E2-BEA8-E3F7823AE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB0021-D61F-4B10-9071-37DE25C8F7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30270" yWindow="-450" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q2_2023_Obligations__c</t>
+    <t>Q3_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2023_Expenditures__c</t>
+    <t>Q3_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -870,20 +870,20 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.5" style="3" customWidth="1"/>
     <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
-    <col min="20" max="23" width="25.125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="30.75" style="3" customWidth="1"/>
-    <col min="25" max="26" width="28.875" style="3" customWidth="1"/>
-    <col min="27" max="29" width="25.625" style="3" customWidth="1"/>
+    <col min="20" max="23" width="25.09765625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="30.69921875" style="3" customWidth="1"/>
+    <col min="25" max="26" width="28.8984375" style="3" customWidth="1"/>
+    <col min="27" max="29" width="25.59765625" style="3" customWidth="1"/>
     <col min="30" max="32" width="7.5" style="3" customWidth="1"/>
     <col min="33" max="16384" width="12.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="210.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="210.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="408.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="75.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="75.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1393,7 +1393,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1427,7 +1427,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1461,7 +1461,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1495,7 +1495,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1529,7 +1529,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1563,7 +1563,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1597,7 +1597,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1631,7 +1631,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1665,7 +1665,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1699,7 +1699,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1733,7 +1733,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1767,7 +1767,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1801,7 +1801,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1835,7 +1835,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1869,7 +1869,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1903,7 +1903,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1937,7 +1937,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1971,7 +1971,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2005,7 +2005,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2039,7 +2039,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2073,7 +2073,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2107,7 +2107,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2141,7 +2141,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2175,7 +2175,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2209,7 +2209,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2243,7 +2243,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2277,7 +2277,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2311,7 +2311,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2345,7 +2345,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2379,7 +2379,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2413,7 +2413,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2447,7 +2447,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2481,7 +2481,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2515,7 +2515,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2549,7 +2549,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2583,7 +2583,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2617,7 +2617,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2651,7 +2651,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2685,7 +2685,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2719,7 +2719,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2753,7 +2753,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2787,7 +2787,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2821,7 +2821,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2855,7 +2855,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2889,7 +2889,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2923,7 +2923,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2957,7 +2957,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2991,7 +2991,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3025,7 +3025,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3059,7 +3059,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3093,7 +3093,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3127,7 +3127,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3161,7 +3161,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3195,7 +3195,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3229,7 +3229,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3263,7 +3263,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3297,7 +3297,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3331,7 +3331,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3365,7 +3365,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3399,7 +3399,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3433,7 +3433,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3467,7 +3467,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3501,7 +3501,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3535,7 +3535,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3569,7 +3569,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3603,7 +3603,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3637,7 +3637,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3671,7 +3671,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3705,7 +3705,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3739,7 +3739,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3773,7 +3773,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3807,7 +3807,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3841,7 +3841,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3875,7 +3875,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3909,7 +3909,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3943,7 +3943,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3977,7 +3977,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4011,7 +4011,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4045,7 +4045,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4079,7 +4079,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4113,7 +4113,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4147,7 +4147,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4181,7 +4181,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4215,7 +4215,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4249,7 +4249,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4283,7 +4283,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4317,7 +4317,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4351,7 +4351,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4385,7 +4385,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4419,7 +4419,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4453,7 +4453,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4487,7 +4487,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4521,7 +4521,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4555,7 +4555,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4589,7 +4589,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4623,7 +4623,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4657,7 +4657,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4691,7 +4691,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4725,7 +4725,7 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4759,7 +4759,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4793,7 +4793,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4827,7 +4827,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4861,7 +4861,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4895,7 +4895,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4929,7 +4929,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4963,7 +4963,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4997,7 +4997,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5031,7 +5031,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5065,7 +5065,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5099,7 +5099,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5133,7 +5133,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5167,7 +5167,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5201,7 +5201,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5235,7 +5235,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5269,7 +5269,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5303,7 +5303,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5337,7 +5337,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5371,7 +5371,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5405,7 +5405,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5439,7 +5439,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5473,7 +5473,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5507,7 +5507,7 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5541,7 +5541,7 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5575,7 +5575,7 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5609,7 +5609,7 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5643,7 +5643,7 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5677,7 +5677,7 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5711,7 +5711,7 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5745,7 +5745,7 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5779,7 +5779,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5813,7 +5813,7 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5847,7 +5847,7 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5881,7 +5881,7 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5915,7 +5915,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5949,7 +5949,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5983,7 +5983,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6017,7 +6017,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6051,7 +6051,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6085,7 +6085,7 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6119,7 +6119,7 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6153,7 +6153,7 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6187,7 +6187,7 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6221,7 +6221,7 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6255,7 +6255,7 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6289,7 +6289,7 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6323,7 +6323,7 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6357,7 +6357,7 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6391,7 +6391,7 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6425,7 +6425,7 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6459,7 +6459,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6493,7 +6493,7 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6527,7 +6527,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6561,7 +6561,7 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6595,7 +6595,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6629,7 +6629,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6663,7 +6663,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6697,7 +6697,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6731,7 +6731,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6765,7 +6765,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6799,7 +6799,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6833,7 +6833,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6867,7 +6867,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6901,7 +6901,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6935,7 +6935,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6969,7 +6969,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7003,7 +7003,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7037,7 +7037,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7071,7 +7071,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7105,7 +7105,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7139,7 +7139,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7173,7 +7173,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7207,7 +7207,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7241,7 +7241,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7275,7 +7275,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7309,7 +7309,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7343,7 +7343,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7377,7 +7377,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7411,7 +7411,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7445,7 +7445,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7479,7 +7479,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7513,7 +7513,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7547,7 +7547,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7581,7 +7581,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7615,7 +7615,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7649,7 +7649,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7683,7 +7683,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7717,7 +7717,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7751,7 +7751,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7785,7 +7785,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7819,7 +7819,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7853,7 +7853,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7887,7 +7887,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7921,7 +7921,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7955,7 +7955,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7989,7 +7989,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8023,7 +8023,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8057,7 +8057,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8091,7 +8091,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8125,7 +8125,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8159,7 +8159,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -8193,7 +8193,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8227,7 +8227,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8261,7 +8261,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -8295,7 +8295,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8329,7 +8329,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8363,7 +8363,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8397,7 +8397,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8431,7 +8431,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8465,7 +8465,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8499,7 +8499,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8533,7 +8533,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8567,7 +8567,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8601,7 +8601,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8635,7 +8635,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8669,7 +8669,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8703,7 +8703,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8737,7 +8737,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8771,7 +8771,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8805,7 +8805,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8839,7 +8839,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8873,7 +8873,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8907,7 +8907,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8941,7 +8941,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8975,7 +8975,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9009,7 +9009,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -9043,7 +9043,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -9077,7 +9077,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -9111,7 +9111,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -9145,7 +9145,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -9179,7 +9179,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -9213,7 +9213,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -9247,7 +9247,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -9281,7 +9281,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -9315,7 +9315,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -9349,7 +9349,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -9383,7 +9383,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -9417,7 +9417,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -9451,7 +9451,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -9485,7 +9485,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -9519,7 +9519,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -9553,7 +9553,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -9587,7 +9587,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -9621,7 +9621,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -9655,7 +9655,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9689,7 +9689,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9723,7 +9723,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9757,7 +9757,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9791,7 +9791,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9825,7 +9825,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9859,7 +9859,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9893,7 +9893,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9927,7 +9927,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9961,7 +9961,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9995,7 +9995,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -10029,7 +10029,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -10063,7 +10063,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -10097,7 +10097,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -10131,7 +10131,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -10165,7 +10165,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -10199,7 +10199,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -10233,7 +10233,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -10267,7 +10267,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -10301,7 +10301,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -10335,7 +10335,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -10369,7 +10369,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -10403,7 +10403,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -10437,7 +10437,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -10471,7 +10471,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -10505,7 +10505,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -10539,7 +10539,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -10573,7 +10573,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -10607,7 +10607,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -10641,7 +10641,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -10675,7 +10675,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -10709,7 +10709,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -10743,7 +10743,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10777,7 +10777,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -10811,7 +10811,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10845,7 +10845,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10879,7 +10879,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10913,7 +10913,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10947,7 +10947,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10981,7 +10981,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -11015,7 +11015,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -11049,7 +11049,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -11083,7 +11083,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11117,7 +11117,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -11151,7 +11151,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -11185,7 +11185,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -11219,7 +11219,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -11253,7 +11253,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -11287,7 +11287,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -11321,7 +11321,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -11355,7 +11355,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -11389,7 +11389,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -11423,7 +11423,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -11457,7 +11457,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -11491,7 +11491,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11525,7 +11525,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11559,7 +11559,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -11593,7 +11593,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11627,7 +11627,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -11661,7 +11661,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -11695,7 +11695,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -11729,7 +11729,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -11763,7 +11763,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11797,7 +11797,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -11831,7 +11831,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -11865,7 +11865,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -11899,7 +11899,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -11933,7 +11933,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11967,7 +11967,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -12001,7 +12001,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -12035,7 +12035,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -12069,7 +12069,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -12103,7 +12103,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -12137,7 +12137,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -12171,7 +12171,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -12205,7 +12205,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -12239,7 +12239,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -12273,7 +12273,7 @@
       <c r="AE328" s="2"/>
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -12307,7 +12307,7 @@
       <c r="AE329" s="2"/>
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -12341,7 +12341,7 @@
       <c r="AE330" s="2"/>
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -12375,7 +12375,7 @@
       <c r="AE331" s="2"/>
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -12409,7 +12409,7 @@
       <c r="AE332" s="2"/>
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -12443,7 +12443,7 @@
       <c r="AE333" s="2"/>
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -12477,7 +12477,7 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -12511,7 +12511,7 @@
       <c r="AE335" s="2"/>
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -12545,7 +12545,7 @@
       <c r="AE336" s="2"/>
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -12579,7 +12579,7 @@
       <c r="AE337" s="2"/>
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -12613,7 +12613,7 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
-    <row r="339" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12647,7 +12647,7 @@
       <c r="AE339" s="2"/>
       <c r="AF339" s="2"/>
     </row>
-    <row r="340" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -12681,7 +12681,7 @@
       <c r="AE340" s="2"/>
       <c r="AF340" s="2"/>
     </row>
-    <row r="341" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -12715,7 +12715,7 @@
       <c r="AE341" s="2"/>
       <c r="AF341" s="2"/>
     </row>
-    <row r="342" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -12749,7 +12749,7 @@
       <c r="AE342" s="2"/>
       <c r="AF342" s="2"/>
     </row>
-    <row r="343" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -12783,7 +12783,7 @@
       <c r="AE343" s="2"/>
       <c r="AF343" s="2"/>
     </row>
-    <row r="344" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12817,7 +12817,7 @@
       <c r="AE344" s="2"/>
       <c r="AF344" s="2"/>
     </row>
-    <row r="345" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12851,7 +12851,7 @@
       <c r="AE345" s="2"/>
       <c r="AF345" s="2"/>
     </row>
-    <row r="346" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12885,7 +12885,7 @@
       <c r="AE346" s="2"/>
       <c r="AF346" s="2"/>
     </row>
-    <row r="347" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12919,7 +12919,7 @@
       <c r="AE347" s="2"/>
       <c r="AF347" s="2"/>
     </row>
-    <row r="348" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12953,7 +12953,7 @@
       <c r="AE348" s="2"/>
       <c r="AF348" s="2"/>
     </row>
-    <row r="349" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12987,7 +12987,7 @@
       <c r="AE349" s="2"/>
       <c r="AF349" s="2"/>
     </row>
-    <row r="350" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -13021,7 +13021,7 @@
       <c r="AE350" s="2"/>
       <c r="AF350" s="2"/>
     </row>
-    <row r="351" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -13055,7 +13055,7 @@
       <c r="AE351" s="2"/>
       <c r="AF351" s="2"/>
     </row>
-    <row r="352" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -13089,7 +13089,7 @@
       <c r="AE352" s="2"/>
       <c r="AF352" s="2"/>
     </row>
-    <row r="353" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -13123,7 +13123,7 @@
       <c r="AE353" s="2"/>
       <c r="AF353" s="2"/>
     </row>
-    <row r="354" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -13157,7 +13157,7 @@
       <c r="AE354" s="2"/>
       <c r="AF354" s="2"/>
     </row>
-    <row r="355" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -13191,7 +13191,7 @@
       <c r="AE355" s="2"/>
       <c r="AF355" s="2"/>
     </row>
-    <row r="356" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -13225,7 +13225,7 @@
       <c r="AE356" s="2"/>
       <c r="AF356" s="2"/>
     </row>
-    <row r="357" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -13259,7 +13259,7 @@
       <c r="AE357" s="2"/>
       <c r="AF357" s="2"/>
     </row>
-    <row r="358" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -13293,7 +13293,7 @@
       <c r="AE358" s="2"/>
       <c r="AF358" s="2"/>
     </row>
-    <row r="359" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -13327,7 +13327,7 @@
       <c r="AE359" s="2"/>
       <c r="AF359" s="2"/>
     </row>
-    <row r="360" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -13361,7 +13361,7 @@
       <c r="AE360" s="2"/>
       <c r="AF360" s="2"/>
     </row>
-    <row r="361" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -13395,7 +13395,7 @@
       <c r="AE361" s="2"/>
       <c r="AF361" s="2"/>
     </row>
-    <row r="362" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -13429,7 +13429,7 @@
       <c r="AE362" s="2"/>
       <c r="AF362" s="2"/>
     </row>
-    <row r="363" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -13463,7 +13463,7 @@
       <c r="AE363" s="2"/>
       <c r="AF363" s="2"/>
     </row>
-    <row r="364" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -13497,7 +13497,7 @@
       <c r="AE364" s="2"/>
       <c r="AF364" s="2"/>
     </row>
-    <row r="365" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -13531,7 +13531,7 @@
       <c r="AE365" s="2"/>
       <c r="AF365" s="2"/>
     </row>
-    <row r="366" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -13565,7 +13565,7 @@
       <c r="AE366" s="2"/>
       <c r="AF366" s="2"/>
     </row>
-    <row r="367" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -13599,7 +13599,7 @@
       <c r="AE367" s="2"/>
       <c r="AF367" s="2"/>
     </row>
-    <row r="368" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -13633,7 +13633,7 @@
       <c r="AE368" s="2"/>
       <c r="AF368" s="2"/>
     </row>
-    <row r="369" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -13667,7 +13667,7 @@
       <c r="AE369" s="2"/>
       <c r="AF369" s="2"/>
     </row>
-    <row r="370" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -13701,7 +13701,7 @@
       <c r="AE370" s="2"/>
       <c r="AF370" s="2"/>
     </row>
-    <row r="371" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -13735,7 +13735,7 @@
       <c r="AE371" s="2"/>
       <c r="AF371" s="2"/>
     </row>
-    <row r="372" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -13769,7 +13769,7 @@
       <c r="AE372" s="2"/>
       <c r="AF372" s="2"/>
     </row>
-    <row r="373" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -13803,7 +13803,7 @@
       <c r="AE373" s="2"/>
       <c r="AF373" s="2"/>
     </row>
-    <row r="374" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -13837,7 +13837,7 @@
       <c r="AE374" s="2"/>
       <c r="AF374" s="2"/>
     </row>
-    <row r="375" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13871,7 +13871,7 @@
       <c r="AE375" s="2"/>
       <c r="AF375" s="2"/>
     </row>
-    <row r="376" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13905,7 +13905,7 @@
       <c r="AE376" s="2"/>
       <c r="AF376" s="2"/>
     </row>
-    <row r="377" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13939,7 +13939,7 @@
       <c r="AE377" s="2"/>
       <c r="AF377" s="2"/>
     </row>
-    <row r="378" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13973,7 +13973,7 @@
       <c r="AE378" s="2"/>
       <c r="AF378" s="2"/>
     </row>
-    <row r="379" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -14007,7 +14007,7 @@
       <c r="AE379" s="2"/>
       <c r="AF379" s="2"/>
     </row>
-    <row r="380" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -14041,7 +14041,7 @@
       <c r="AE380" s="2"/>
       <c r="AF380" s="2"/>
     </row>
-    <row r="381" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -14075,7 +14075,7 @@
       <c r="AE381" s="2"/>
       <c r="AF381" s="2"/>
     </row>
-    <row r="382" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -14109,7 +14109,7 @@
       <c r="AE382" s="2"/>
       <c r="AF382" s="2"/>
     </row>
-    <row r="383" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -14143,7 +14143,7 @@
       <c r="AE383" s="2"/>
       <c r="AF383" s="2"/>
     </row>
-    <row r="384" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -14177,7 +14177,7 @@
       <c r="AE384" s="2"/>
       <c r="AF384" s="2"/>
     </row>
-    <row r="385" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -14211,7 +14211,7 @@
       <c r="AE385" s="2"/>
       <c r="AF385" s="2"/>
     </row>
-    <row r="386" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -14245,7 +14245,7 @@
       <c r="AE386" s="2"/>
       <c r="AF386" s="2"/>
     </row>
-    <row r="387" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -14279,7 +14279,7 @@
       <c r="AE387" s="2"/>
       <c r="AF387" s="2"/>
     </row>
-    <row r="388" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -14313,7 +14313,7 @@
       <c r="AE388" s="2"/>
       <c r="AF388" s="2"/>
     </row>
-    <row r="389" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -14347,7 +14347,7 @@
       <c r="AE389" s="2"/>
       <c r="AF389" s="2"/>
     </row>
-    <row r="390" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -14381,7 +14381,7 @@
       <c r="AE390" s="2"/>
       <c r="AF390" s="2"/>
     </row>
-    <row r="391" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -14415,7 +14415,7 @@
       <c r="AE391" s="2"/>
       <c r="AF391" s="2"/>
     </row>
-    <row r="392" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -14449,7 +14449,7 @@
       <c r="AE392" s="2"/>
       <c r="AF392" s="2"/>
     </row>
-    <row r="393" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -14483,7 +14483,7 @@
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
     </row>
-    <row r="394" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -14517,7 +14517,7 @@
       <c r="AE394" s="2"/>
       <c r="AF394" s="2"/>
     </row>
-    <row r="395" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -14551,7 +14551,7 @@
       <c r="AE395" s="2"/>
       <c r="AF395" s="2"/>
     </row>
-    <row r="396" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -14585,7 +14585,7 @@
       <c r="AE396" s="2"/>
       <c r="AF396" s="2"/>
     </row>
-    <row r="397" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -14619,7 +14619,7 @@
       <c r="AE397" s="2"/>
       <c r="AF397" s="2"/>
     </row>
-    <row r="398" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -14653,7 +14653,7 @@
       <c r="AE398" s="2"/>
       <c r="AF398" s="2"/>
     </row>
-    <row r="399" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -14687,7 +14687,7 @@
       <c r="AE399" s="2"/>
       <c r="AF399" s="2"/>
     </row>
-    <row r="400" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -14721,7 +14721,7 @@
       <c r="AE400" s="2"/>
       <c r="AF400" s="2"/>
     </row>
-    <row r="401" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -14755,7 +14755,7 @@
       <c r="AE401" s="2"/>
       <c r="AF401" s="2"/>
     </row>
-    <row r="402" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -14789,7 +14789,7 @@
       <c r="AE402" s="2"/>
       <c r="AF402" s="2"/>
     </row>
-    <row r="403" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -14823,7 +14823,7 @@
       <c r="AE403" s="2"/>
       <c r="AF403" s="2"/>
     </row>
-    <row r="404" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -14857,7 +14857,7 @@
       <c r="AE404" s="2"/>
       <c r="AF404" s="2"/>
     </row>
-    <row r="405" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -14891,7 +14891,7 @@
       <c r="AE405" s="2"/>
       <c r="AF405" s="2"/>
     </row>
-    <row r="406" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -14925,7 +14925,7 @@
       <c r="AE406" s="2"/>
       <c r="AF406" s="2"/>
     </row>
-    <row r="407" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -14959,7 +14959,7 @@
       <c r="AE407" s="2"/>
       <c r="AF407" s="2"/>
     </row>
-    <row r="408" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -14993,7 +14993,7 @@
       <c r="AE408" s="2"/>
       <c r="AF408" s="2"/>
     </row>
-    <row r="409" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -15027,7 +15027,7 @@
       <c r="AE409" s="2"/>
       <c r="AF409" s="2"/>
     </row>
-    <row r="410" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -15061,7 +15061,7 @@
       <c r="AE410" s="2"/>
       <c r="AF410" s="2"/>
     </row>
-    <row r="411" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -15095,7 +15095,7 @@
       <c r="AE411" s="2"/>
       <c r="AF411" s="2"/>
     </row>
-    <row r="412" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -15129,7 +15129,7 @@
       <c r="AE412" s="2"/>
       <c r="AF412" s="2"/>
     </row>
-    <row r="413" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -15163,7 +15163,7 @@
       <c r="AE413" s="2"/>
       <c r="AF413" s="2"/>
     </row>
-    <row r="414" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -15197,7 +15197,7 @@
       <c r="AE414" s="2"/>
       <c r="AF414" s="2"/>
     </row>
-    <row r="415" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -15231,7 +15231,7 @@
       <c r="AE415" s="2"/>
       <c r="AF415" s="2"/>
     </row>
-    <row r="416" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -15265,7 +15265,7 @@
       <c r="AE416" s="2"/>
       <c r="AF416" s="2"/>
     </row>
-    <row r="417" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -15299,7 +15299,7 @@
       <c r="AE417" s="2"/>
       <c r="AF417" s="2"/>
     </row>
-    <row r="418" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -15333,7 +15333,7 @@
       <c r="AE418" s="2"/>
       <c r="AF418" s="2"/>
     </row>
-    <row r="419" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -15367,7 +15367,7 @@
       <c r="AE419" s="2"/>
       <c r="AF419" s="2"/>
     </row>
-    <row r="420" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -15401,7 +15401,7 @@
       <c r="AE420" s="2"/>
       <c r="AF420" s="2"/>
     </row>
-    <row r="421" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -15435,7 +15435,7 @@
       <c r="AE421" s="2"/>
       <c r="AF421" s="2"/>
     </row>
-    <row r="422" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -15469,7 +15469,7 @@
       <c r="AE422" s="2"/>
       <c r="AF422" s="2"/>
     </row>
-    <row r="423" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -15503,7 +15503,7 @@
       <c r="AE423" s="2"/>
       <c r="AF423" s="2"/>
     </row>
-    <row r="424" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -15537,7 +15537,7 @@
       <c r="AE424" s="2"/>
       <c r="AF424" s="2"/>
     </row>
-    <row r="425" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -15571,7 +15571,7 @@
       <c r="AE425" s="2"/>
       <c r="AF425" s="2"/>
     </row>
-    <row r="426" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -15605,7 +15605,7 @@
       <c r="AE426" s="2"/>
       <c r="AF426" s="2"/>
     </row>
-    <row r="427" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -15639,7 +15639,7 @@
       <c r="AE427" s="2"/>
       <c r="AF427" s="2"/>
     </row>
-    <row r="428" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -15673,7 +15673,7 @@
       <c r="AE428" s="2"/>
       <c r="AF428" s="2"/>
     </row>
-    <row r="429" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -15707,7 +15707,7 @@
       <c r="AE429" s="2"/>
       <c r="AF429" s="2"/>
     </row>
-    <row r="430" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -15741,7 +15741,7 @@
       <c r="AE430" s="2"/>
       <c r="AF430" s="2"/>
     </row>
-    <row r="431" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -15775,7 +15775,7 @@
       <c r="AE431" s="2"/>
       <c r="AF431" s="2"/>
     </row>
-    <row r="432" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -15809,7 +15809,7 @@
       <c r="AE432" s="2"/>
       <c r="AF432" s="2"/>
     </row>
-    <row r="433" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -15843,7 +15843,7 @@
       <c r="AE433" s="2"/>
       <c r="AF433" s="2"/>
     </row>
-    <row r="434" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -15877,7 +15877,7 @@
       <c r="AE434" s="2"/>
       <c r="AF434" s="2"/>
     </row>
-    <row r="435" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -15911,7 +15911,7 @@
       <c r="AE435" s="2"/>
       <c r="AF435" s="2"/>
     </row>
-    <row r="436" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -15945,7 +15945,7 @@
       <c r="AE436" s="2"/>
       <c r="AF436" s="2"/>
     </row>
-    <row r="437" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -15979,7 +15979,7 @@
       <c r="AE437" s="2"/>
       <c r="AF437" s="2"/>
     </row>
-    <row r="438" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -16013,7 +16013,7 @@
       <c r="AE438" s="2"/>
       <c r="AF438" s="2"/>
     </row>
-    <row r="439" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -16047,7 +16047,7 @@
       <c r="AE439" s="2"/>
       <c r="AF439" s="2"/>
     </row>
-    <row r="440" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -16081,7 +16081,7 @@
       <c r="AE440" s="2"/>
       <c r="AF440" s="2"/>
     </row>
-    <row r="441" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -16115,7 +16115,7 @@
       <c r="AE441" s="2"/>
       <c r="AF441" s="2"/>
     </row>
-    <row r="442" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -16149,7 +16149,7 @@
       <c r="AE442" s="2"/>
       <c r="AF442" s="2"/>
     </row>
-    <row r="443" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -16183,7 +16183,7 @@
       <c r="AE443" s="2"/>
       <c r="AF443" s="2"/>
     </row>
-    <row r="444" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -16217,7 +16217,7 @@
       <c r="AE444" s="2"/>
       <c r="AF444" s="2"/>
     </row>
-    <row r="445" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -16251,7 +16251,7 @@
       <c r="AE445" s="2"/>
       <c r="AF445" s="2"/>
     </row>
-    <row r="446" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -16285,7 +16285,7 @@
       <c r="AE446" s="2"/>
       <c r="AF446" s="2"/>
     </row>
-    <row r="447" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -16319,7 +16319,7 @@
       <c r="AE447" s="2"/>
       <c r="AF447" s="2"/>
     </row>
-    <row r="448" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -16353,7 +16353,7 @@
       <c r="AE448" s="2"/>
       <c r="AF448" s="2"/>
     </row>
-    <row r="449" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -16387,7 +16387,7 @@
       <c r="AE449" s="2"/>
       <c r="AF449" s="2"/>
     </row>
-    <row r="450" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -16421,7 +16421,7 @@
       <c r="AE450" s="2"/>
       <c r="AF450" s="2"/>
     </row>
-    <row r="451" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -16455,7 +16455,7 @@
       <c r="AE451" s="2"/>
       <c r="AF451" s="2"/>
     </row>
-    <row r="452" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -16489,7 +16489,7 @@
       <c r="AE452" s="2"/>
       <c r="AF452" s="2"/>
     </row>
-    <row r="453" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -16523,7 +16523,7 @@
       <c r="AE453" s="2"/>
       <c r="AF453" s="2"/>
     </row>
-    <row r="454" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -16557,7 +16557,7 @@
       <c r="AE454" s="2"/>
       <c r="AF454" s="2"/>
     </row>
-    <row r="455" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -16591,7 +16591,7 @@
       <c r="AE455" s="2"/>
       <c r="AF455" s="2"/>
     </row>
-    <row r="456" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -16625,7 +16625,7 @@
       <c r="AE456" s="2"/>
       <c r="AF456" s="2"/>
     </row>
-    <row r="457" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -16659,7 +16659,7 @@
       <c r="AE457" s="2"/>
       <c r="AF457" s="2"/>
     </row>
-    <row r="458" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -16693,7 +16693,7 @@
       <c r="AE458" s="2"/>
       <c r="AF458" s="2"/>
     </row>
-    <row r="459" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -16727,7 +16727,7 @@
       <c r="AE459" s="2"/>
       <c r="AF459" s="2"/>
     </row>
-    <row r="460" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -16761,7 +16761,7 @@
       <c r="AE460" s="2"/>
       <c r="AF460" s="2"/>
     </row>
-    <row r="461" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -16795,7 +16795,7 @@
       <c r="AE461" s="2"/>
       <c r="AF461" s="2"/>
     </row>
-    <row r="462" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -16829,7 +16829,7 @@
       <c r="AE462" s="2"/>
       <c r="AF462" s="2"/>
     </row>
-    <row r="463" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -16863,7 +16863,7 @@
       <c r="AE463" s="2"/>
       <c r="AF463" s="2"/>
     </row>
-    <row r="464" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -16897,7 +16897,7 @@
       <c r="AE464" s="2"/>
       <c r="AF464" s="2"/>
     </row>
-    <row r="465" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -16931,7 +16931,7 @@
       <c r="AE465" s="2"/>
       <c r="AF465" s="2"/>
     </row>
-    <row r="466" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -16965,7 +16965,7 @@
       <c r="AE466" s="2"/>
       <c r="AF466" s="2"/>
     </row>
-    <row r="467" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -16999,7 +16999,7 @@
       <c r="AE467" s="2"/>
       <c r="AF467" s="2"/>
     </row>
-    <row r="468" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -17033,7 +17033,7 @@
       <c r="AE468" s="2"/>
       <c r="AF468" s="2"/>
     </row>
-    <row r="469" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -17067,7 +17067,7 @@
       <c r="AE469" s="2"/>
       <c r="AF469" s="2"/>
     </row>
-    <row r="470" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -17101,7 +17101,7 @@
       <c r="AE470" s="2"/>
       <c r="AF470" s="2"/>
     </row>
-    <row r="471" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -17135,7 +17135,7 @@
       <c r="AE471" s="2"/>
       <c r="AF471" s="2"/>
     </row>
-    <row r="472" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -17169,7 +17169,7 @@
       <c r="AE472" s="2"/>
       <c r="AF472" s="2"/>
     </row>
-    <row r="473" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -17203,7 +17203,7 @@
       <c r="AE473" s="2"/>
       <c r="AF473" s="2"/>
     </row>
-    <row r="474" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -17237,7 +17237,7 @@
       <c r="AE474" s="2"/>
       <c r="AF474" s="2"/>
     </row>
-    <row r="475" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -17271,7 +17271,7 @@
       <c r="AE475" s="2"/>
       <c r="AF475" s="2"/>
     </row>
-    <row r="476" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -17305,7 +17305,7 @@
       <c r="AE476" s="2"/>
       <c r="AF476" s="2"/>
     </row>
-    <row r="477" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -17339,7 +17339,7 @@
       <c r="AE477" s="2"/>
       <c r="AF477" s="2"/>
     </row>
-    <row r="478" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -17373,7 +17373,7 @@
       <c r="AE478" s="2"/>
       <c r="AF478" s="2"/>
     </row>
-    <row r="479" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -17407,7 +17407,7 @@
       <c r="AE479" s="2"/>
       <c r="AF479" s="2"/>
     </row>
-    <row r="480" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -17441,7 +17441,7 @@
       <c r="AE480" s="2"/>
       <c r="AF480" s="2"/>
     </row>
-    <row r="481" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -17475,7 +17475,7 @@
       <c r="AE481" s="2"/>
       <c r="AF481" s="2"/>
     </row>
-    <row r="482" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -17509,7 +17509,7 @@
       <c r="AE482" s="2"/>
       <c r="AF482" s="2"/>
     </row>
-    <row r="483" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -17543,7 +17543,7 @@
       <c r="AE483" s="2"/>
       <c r="AF483" s="2"/>
     </row>
-    <row r="484" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -17577,7 +17577,7 @@
       <c r="AE484" s="2"/>
       <c r="AF484" s="2"/>
     </row>
-    <row r="485" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -17611,7 +17611,7 @@
       <c r="AE485" s="2"/>
       <c r="AF485" s="2"/>
     </row>
-    <row r="486" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -17645,7 +17645,7 @@
       <c r="AE486" s="2"/>
       <c r="AF486" s="2"/>
     </row>
-    <row r="487" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -17679,7 +17679,7 @@
       <c r="AE487" s="2"/>
       <c r="AF487" s="2"/>
     </row>
-    <row r="488" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -17713,7 +17713,7 @@
       <c r="AE488" s="2"/>
       <c r="AF488" s="2"/>
     </row>
-    <row r="489" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17747,7 +17747,7 @@
       <c r="AE489" s="2"/>
       <c r="AF489" s="2"/>
     </row>
-    <row r="490" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17781,7 +17781,7 @@
       <c r="AE490" s="2"/>
       <c r="AF490" s="2"/>
     </row>
-    <row r="491" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17815,7 +17815,7 @@
       <c r="AE491" s="2"/>
       <c r="AF491" s="2"/>
     </row>
-    <row r="492" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17849,7 +17849,7 @@
       <c r="AE492" s="2"/>
       <c r="AF492" s="2"/>
     </row>
-    <row r="493" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17883,7 +17883,7 @@
       <c r="AE493" s="2"/>
       <c r="AF493" s="2"/>
     </row>
-    <row r="494" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17917,7 +17917,7 @@
       <c r="AE494" s="2"/>
       <c r="AF494" s="2"/>
     </row>
-    <row r="495" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17951,7 +17951,7 @@
       <c r="AE495" s="2"/>
       <c r="AF495" s="2"/>
     </row>
-    <row r="496" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17985,7 +17985,7 @@
       <c r="AE496" s="2"/>
       <c r="AF496" s="2"/>
     </row>
-    <row r="497" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -18019,7 +18019,7 @@
       <c r="AE497" s="2"/>
       <c r="AF497" s="2"/>
     </row>
-    <row r="498" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -18053,7 +18053,7 @@
       <c r="AE498" s="2"/>
       <c r="AF498" s="2"/>
     </row>
-    <row r="499" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -18087,7 +18087,7 @@
       <c r="AE499" s="2"/>
       <c r="AF499" s="2"/>
     </row>
-    <row r="500" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -18121,7 +18121,7 @@
       <c r="AE500" s="2"/>
       <c r="AF500" s="2"/>
     </row>
-    <row r="501" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -18155,7 +18155,7 @@
       <c r="AE501" s="2"/>
       <c r="AF501" s="2"/>
     </row>
-    <row r="502" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -18189,7 +18189,7 @@
       <c r="AE502" s="2"/>
       <c r="AF502" s="2"/>
     </row>
-    <row r="503" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -18223,7 +18223,7 @@
       <c r="AE503" s="2"/>
       <c r="AF503" s="2"/>
     </row>
-    <row r="504" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -18257,7 +18257,7 @@
       <c r="AE504" s="2"/>
       <c r="AF504" s="2"/>
     </row>
-    <row r="505" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -18291,7 +18291,7 @@
       <c r="AE505" s="2"/>
       <c r="AF505" s="2"/>
     </row>
-    <row r="506" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -18325,7 +18325,7 @@
       <c r="AE506" s="2"/>
       <c r="AF506" s="2"/>
     </row>
-    <row r="507" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -18359,7 +18359,7 @@
       <c r="AE507" s="2"/>
       <c r="AF507" s="2"/>
     </row>
-    <row r="508" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -18393,7 +18393,7 @@
       <c r="AE508" s="2"/>
       <c r="AF508" s="2"/>
     </row>
-    <row r="509" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -18427,7 +18427,7 @@
       <c r="AE509" s="2"/>
       <c r="AF509" s="2"/>
     </row>
-    <row r="510" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -18461,7 +18461,7 @@
       <c r="AE510" s="2"/>
       <c r="AF510" s="2"/>
     </row>
-    <row r="511" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -18495,7 +18495,7 @@
       <c r="AE511" s="2"/>
       <c r="AF511" s="2"/>
     </row>
-    <row r="512" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -18529,7 +18529,7 @@
       <c r="AE512" s="2"/>
       <c r="AF512" s="2"/>
     </row>
-    <row r="513" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -18563,7 +18563,7 @@
       <c r="AE513" s="2"/>
       <c r="AF513" s="2"/>
     </row>
-    <row r="514" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -18597,7 +18597,7 @@
       <c r="AE514" s="2"/>
       <c r="AF514" s="2"/>
     </row>
-    <row r="515" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -18631,7 +18631,7 @@
       <c r="AE515" s="2"/>
       <c r="AF515" s="2"/>
     </row>
-    <row r="516" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -18665,7 +18665,7 @@
       <c r="AE516" s="2"/>
       <c r="AF516" s="2"/>
     </row>
-    <row r="517" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -18699,7 +18699,7 @@
       <c r="AE517" s="2"/>
       <c r="AF517" s="2"/>
     </row>
-    <row r="518" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -18733,7 +18733,7 @@
       <c r="AE518" s="2"/>
       <c r="AF518" s="2"/>
     </row>
-    <row r="519" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -18767,7 +18767,7 @@
       <c r="AE519" s="2"/>
       <c r="AF519" s="2"/>
     </row>
-    <row r="520" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -18801,7 +18801,7 @@
       <c r="AE520" s="2"/>
       <c r="AF520" s="2"/>
     </row>
-    <row r="521" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -18835,7 +18835,7 @@
       <c r="AE521" s="2"/>
       <c r="AF521" s="2"/>
     </row>
-    <row r="522" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -18869,7 +18869,7 @@
       <c r="AE522" s="2"/>
       <c r="AF522" s="2"/>
     </row>
-    <row r="523" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -18903,7 +18903,7 @@
       <c r="AE523" s="2"/>
       <c r="AF523" s="2"/>
     </row>
-    <row r="524" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -18937,7 +18937,7 @@
       <c r="AE524" s="2"/>
       <c r="AF524" s="2"/>
     </row>
-    <row r="525" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -18971,7 +18971,7 @@
       <c r="AE525" s="2"/>
       <c r="AF525" s="2"/>
     </row>
-    <row r="526" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -19005,7 +19005,7 @@
       <c r="AE526" s="2"/>
       <c r="AF526" s="2"/>
     </row>
-    <row r="527" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -19039,7 +19039,7 @@
       <c r="AE527" s="2"/>
       <c r="AF527" s="2"/>
     </row>
-    <row r="528" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -19073,7 +19073,7 @@
       <c r="AE528" s="2"/>
       <c r="AF528" s="2"/>
     </row>
-    <row r="529" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -19107,7 +19107,7 @@
       <c r="AE529" s="2"/>
       <c r="AF529" s="2"/>
     </row>
-    <row r="530" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -19141,7 +19141,7 @@
       <c r="AE530" s="2"/>
       <c r="AF530" s="2"/>
     </row>
-    <row r="531" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -19175,7 +19175,7 @@
       <c r="AE531" s="2"/>
       <c r="AF531" s="2"/>
     </row>
-    <row r="532" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -19209,7 +19209,7 @@
       <c r="AE532" s="2"/>
       <c r="AF532" s="2"/>
     </row>
-    <row r="533" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -19243,7 +19243,7 @@
       <c r="AE533" s="2"/>
       <c r="AF533" s="2"/>
     </row>
-    <row r="534" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -19277,7 +19277,7 @@
       <c r="AE534" s="2"/>
       <c r="AF534" s="2"/>
     </row>
-    <row r="535" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -19311,7 +19311,7 @@
       <c r="AE535" s="2"/>
       <c r="AF535" s="2"/>
     </row>
-    <row r="536" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -19345,7 +19345,7 @@
       <c r="AE536" s="2"/>
       <c r="AF536" s="2"/>
     </row>
-    <row r="537" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -19379,7 +19379,7 @@
       <c r="AE537" s="2"/>
       <c r="AF537" s="2"/>
     </row>
-    <row r="538" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -19413,7 +19413,7 @@
       <c r="AE538" s="2"/>
       <c r="AF538" s="2"/>
     </row>
-    <row r="539" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -19447,7 +19447,7 @@
       <c r="AE539" s="2"/>
       <c r="AF539" s="2"/>
     </row>
-    <row r="540" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -19481,7 +19481,7 @@
       <c r="AE540" s="2"/>
       <c r="AF540" s="2"/>
     </row>
-    <row r="541" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -19515,7 +19515,7 @@
       <c r="AE541" s="2"/>
       <c r="AF541" s="2"/>
     </row>
-    <row r="542" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -19549,7 +19549,7 @@
       <c r="AE542" s="2"/>
       <c r="AF542" s="2"/>
     </row>
-    <row r="543" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -19583,7 +19583,7 @@
       <c r="AE543" s="2"/>
       <c r="AF543" s="2"/>
     </row>
-    <row r="544" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -19617,7 +19617,7 @@
       <c r="AE544" s="2"/>
       <c r="AF544" s="2"/>
     </row>
-    <row r="545" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -19651,7 +19651,7 @@
       <c r="AE545" s="2"/>
       <c r="AF545" s="2"/>
     </row>
-    <row r="546" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -19685,7 +19685,7 @@
       <c r="AE546" s="2"/>
       <c r="AF546" s="2"/>
     </row>
-    <row r="547" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -19719,7 +19719,7 @@
       <c r="AE547" s="2"/>
       <c r="AF547" s="2"/>
     </row>
-    <row r="548" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -19753,7 +19753,7 @@
       <c r="AE548" s="2"/>
       <c r="AF548" s="2"/>
     </row>
-    <row r="549" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -19787,7 +19787,7 @@
       <c r="AE549" s="2"/>
       <c r="AF549" s="2"/>
     </row>
-    <row r="550" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -19821,7 +19821,7 @@
       <c r="AE550" s="2"/>
       <c r="AF550" s="2"/>
     </row>
-    <row r="551" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -19855,7 +19855,7 @@
       <c r="AE551" s="2"/>
       <c r="AF551" s="2"/>
     </row>
-    <row r="552" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -19889,7 +19889,7 @@
       <c r="AE552" s="2"/>
       <c r="AF552" s="2"/>
     </row>
-    <row r="553" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -19923,7 +19923,7 @@
       <c r="AE553" s="2"/>
       <c r="AF553" s="2"/>
     </row>
-    <row r="554" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -19957,7 +19957,7 @@
       <c r="AE554" s="2"/>
       <c r="AF554" s="2"/>
     </row>
-    <row r="555" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -19991,7 +19991,7 @@
       <c r="AE555" s="2"/>
       <c r="AF555" s="2"/>
     </row>
-    <row r="556" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -20025,7 +20025,7 @@
       <c r="AE556" s="2"/>
       <c r="AF556" s="2"/>
     </row>
-    <row r="557" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -20059,7 +20059,7 @@
       <c r="AE557" s="2"/>
       <c r="AF557" s="2"/>
     </row>
-    <row r="558" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -20093,7 +20093,7 @@
       <c r="AE558" s="2"/>
       <c r="AF558" s="2"/>
     </row>
-    <row r="559" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -20127,7 +20127,7 @@
       <c r="AE559" s="2"/>
       <c r="AF559" s="2"/>
     </row>
-    <row r="560" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -20161,7 +20161,7 @@
       <c r="AE560" s="2"/>
       <c r="AF560" s="2"/>
     </row>
-    <row r="561" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -20195,7 +20195,7 @@
       <c r="AE561" s="2"/>
       <c r="AF561" s="2"/>
     </row>
-    <row r="562" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -20229,7 +20229,7 @@
       <c r="AE562" s="2"/>
       <c r="AF562" s="2"/>
     </row>
-    <row r="563" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -20263,7 +20263,7 @@
       <c r="AE563" s="2"/>
       <c r="AF563" s="2"/>
     </row>
-    <row r="564" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -20297,7 +20297,7 @@
       <c r="AE564" s="2"/>
       <c r="AF564" s="2"/>
     </row>
-    <row r="565" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -20331,7 +20331,7 @@
       <c r="AE565" s="2"/>
       <c r="AF565" s="2"/>
     </row>
-    <row r="566" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -20365,7 +20365,7 @@
       <c r="AE566" s="2"/>
       <c r="AF566" s="2"/>
     </row>
-    <row r="567" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -20399,7 +20399,7 @@
       <c r="AE567" s="2"/>
       <c r="AF567" s="2"/>
     </row>
-    <row r="568" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -20433,7 +20433,7 @@
       <c r="AE568" s="2"/>
       <c r="AF568" s="2"/>
     </row>
-    <row r="569" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -20467,7 +20467,7 @@
       <c r="AE569" s="2"/>
       <c r="AF569" s="2"/>
     </row>
-    <row r="570" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -20501,7 +20501,7 @@
       <c r="AE570" s="2"/>
       <c r="AF570" s="2"/>
     </row>
-    <row r="571" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -20535,7 +20535,7 @@
       <c r="AE571" s="2"/>
       <c r="AF571" s="2"/>
     </row>
-    <row r="572" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -20569,7 +20569,7 @@
       <c r="AE572" s="2"/>
       <c r="AF572" s="2"/>
     </row>
-    <row r="573" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -20603,7 +20603,7 @@
       <c r="AE573" s="2"/>
       <c r="AF573" s="2"/>
     </row>
-    <row r="574" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -20637,7 +20637,7 @@
       <c r="AE574" s="2"/>
       <c r="AF574" s="2"/>
     </row>
-    <row r="575" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -20671,7 +20671,7 @@
       <c r="AE575" s="2"/>
       <c r="AF575" s="2"/>
     </row>
-    <row r="576" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -20705,7 +20705,7 @@
       <c r="AE576" s="2"/>
       <c r="AF576" s="2"/>
     </row>
-    <row r="577" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -20739,7 +20739,7 @@
       <c r="AE577" s="2"/>
       <c r="AF577" s="2"/>
     </row>
-    <row r="578" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -20773,7 +20773,7 @@
       <c r="AE578" s="2"/>
       <c r="AF578" s="2"/>
     </row>
-    <row r="579" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -20807,7 +20807,7 @@
       <c r="AE579" s="2"/>
       <c r="AF579" s="2"/>
     </row>
-    <row r="580" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -20841,7 +20841,7 @@
       <c r="AE580" s="2"/>
       <c r="AF580" s="2"/>
     </row>
-    <row r="581" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -20875,7 +20875,7 @@
       <c r="AE581" s="2"/>
       <c r="AF581" s="2"/>
     </row>
-    <row r="582" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -20909,7 +20909,7 @@
       <c r="AE582" s="2"/>
       <c r="AF582" s="2"/>
     </row>
-    <row r="583" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -20943,7 +20943,7 @@
       <c r="AE583" s="2"/>
       <c r="AF583" s="2"/>
     </row>
-    <row r="584" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -20977,7 +20977,7 @@
       <c r="AE584" s="2"/>
       <c r="AF584" s="2"/>
     </row>
-    <row r="585" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -21011,7 +21011,7 @@
       <c r="AE585" s="2"/>
       <c r="AF585" s="2"/>
     </row>
-    <row r="586" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -21045,7 +21045,7 @@
       <c r="AE586" s="2"/>
       <c r="AF586" s="2"/>
     </row>
-    <row r="587" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -21079,7 +21079,7 @@
       <c r="AE587" s="2"/>
       <c r="AF587" s="2"/>
     </row>
-    <row r="588" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -21113,7 +21113,7 @@
       <c r="AE588" s="2"/>
       <c r="AF588" s="2"/>
     </row>
-    <row r="589" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -21147,7 +21147,7 @@
       <c r="AE589" s="2"/>
       <c r="AF589" s="2"/>
     </row>
-    <row r="590" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -21181,7 +21181,7 @@
       <c r="AE590" s="2"/>
       <c r="AF590" s="2"/>
     </row>
-    <row r="591" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -21215,7 +21215,7 @@
       <c r="AE591" s="2"/>
       <c r="AF591" s="2"/>
     </row>
-    <row r="592" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -21249,7 +21249,7 @@
       <c r="AE592" s="2"/>
       <c r="AF592" s="2"/>
     </row>
-    <row r="593" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -21283,7 +21283,7 @@
       <c r="AE593" s="2"/>
       <c r="AF593" s="2"/>
     </row>
-    <row r="594" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -21317,7 +21317,7 @@
       <c r="AE594" s="2"/>
       <c r="AF594" s="2"/>
     </row>
-    <row r="595" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -21351,7 +21351,7 @@
       <c r="AE595" s="2"/>
       <c r="AF595" s="2"/>
     </row>
-    <row r="596" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -21385,7 +21385,7 @@
       <c r="AE596" s="2"/>
       <c r="AF596" s="2"/>
     </row>
-    <row r="597" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -21419,7 +21419,7 @@
       <c r="AE597" s="2"/>
       <c r="AF597" s="2"/>
     </row>
-    <row r="598" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -21453,7 +21453,7 @@
       <c r="AE598" s="2"/>
       <c r="AF598" s="2"/>
     </row>
-    <row r="599" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -21487,7 +21487,7 @@
       <c r="AE599" s="2"/>
       <c r="AF599" s="2"/>
     </row>
-    <row r="600" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -21521,7 +21521,7 @@
       <c r="AE600" s="2"/>
       <c r="AF600" s="2"/>
     </row>
-    <row r="601" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -21555,7 +21555,7 @@
       <c r="AE601" s="2"/>
       <c r="AF601" s="2"/>
     </row>
-    <row r="602" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -21589,7 +21589,7 @@
       <c r="AE602" s="2"/>
       <c r="AF602" s="2"/>
     </row>
-    <row r="603" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -21623,7 +21623,7 @@
       <c r="AE603" s="2"/>
       <c r="AF603" s="2"/>
     </row>
-    <row r="604" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -21657,7 +21657,7 @@
       <c r="AE604" s="2"/>
       <c r="AF604" s="2"/>
     </row>
-    <row r="605" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -21691,7 +21691,7 @@
       <c r="AE605" s="2"/>
       <c r="AF605" s="2"/>
     </row>
-    <row r="606" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -21725,7 +21725,7 @@
       <c r="AE606" s="2"/>
       <c r="AF606" s="2"/>
     </row>
-    <row r="607" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -21759,7 +21759,7 @@
       <c r="AE607" s="2"/>
       <c r="AF607" s="2"/>
     </row>
-    <row r="608" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -21793,7 +21793,7 @@
       <c r="AE608" s="2"/>
       <c r="AF608" s="2"/>
     </row>
-    <row r="609" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -21827,7 +21827,7 @@
       <c r="AE609" s="2"/>
       <c r="AF609" s="2"/>
     </row>
-    <row r="610" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -21861,7 +21861,7 @@
       <c r="AE610" s="2"/>
       <c r="AF610" s="2"/>
     </row>
-    <row r="611" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -21895,7 +21895,7 @@
       <c r="AE611" s="2"/>
       <c r="AF611" s="2"/>
     </row>
-    <row r="612" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -21929,7 +21929,7 @@
       <c r="AE612" s="2"/>
       <c r="AF612" s="2"/>
     </row>
-    <row r="613" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -21963,7 +21963,7 @@
       <c r="AE613" s="2"/>
       <c r="AF613" s="2"/>
     </row>
-    <row r="614" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -21997,7 +21997,7 @@
       <c r="AE614" s="2"/>
       <c r="AF614" s="2"/>
     </row>
-    <row r="615" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -22031,7 +22031,7 @@
       <c r="AE615" s="2"/>
       <c r="AF615" s="2"/>
     </row>
-    <row r="616" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -22065,7 +22065,7 @@
       <c r="AE616" s="2"/>
       <c r="AF616" s="2"/>
     </row>
-    <row r="617" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -22099,7 +22099,7 @@
       <c r="AE617" s="2"/>
       <c r="AF617" s="2"/>
     </row>
-    <row r="618" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -22133,7 +22133,7 @@
       <c r="AE618" s="2"/>
       <c r="AF618" s="2"/>
     </row>
-    <row r="619" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -22167,7 +22167,7 @@
       <c r="AE619" s="2"/>
       <c r="AF619" s="2"/>
     </row>
-    <row r="620" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -22201,7 +22201,7 @@
       <c r="AE620" s="2"/>
       <c r="AF620" s="2"/>
     </row>
-    <row r="621" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -22235,7 +22235,7 @@
       <c r="AE621" s="2"/>
       <c r="AF621" s="2"/>
     </row>
-    <row r="622" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -22269,7 +22269,7 @@
       <c r="AE622" s="2"/>
       <c r="AF622" s="2"/>
     </row>
-    <row r="623" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -22303,7 +22303,7 @@
       <c r="AE623" s="2"/>
       <c r="AF623" s="2"/>
     </row>
-    <row r="624" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -22337,7 +22337,7 @@
       <c r="AE624" s="2"/>
       <c r="AF624" s="2"/>
     </row>
-    <row r="625" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -22371,7 +22371,7 @@
       <c r="AE625" s="2"/>
       <c r="AF625" s="2"/>
     </row>
-    <row r="626" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -22405,7 +22405,7 @@
       <c r="AE626" s="2"/>
       <c r="AF626" s="2"/>
     </row>
-    <row r="627" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -22439,7 +22439,7 @@
       <c r="AE627" s="2"/>
       <c r="AF627" s="2"/>
     </row>
-    <row r="628" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -22473,7 +22473,7 @@
       <c r="AE628" s="2"/>
       <c r="AF628" s="2"/>
     </row>
-    <row r="629" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -22507,7 +22507,7 @@
       <c r="AE629" s="2"/>
       <c r="AF629" s="2"/>
     </row>
-    <row r="630" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -22541,7 +22541,7 @@
       <c r="AE630" s="2"/>
       <c r="AF630" s="2"/>
     </row>
-    <row r="631" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -22575,7 +22575,7 @@
       <c r="AE631" s="2"/>
       <c r="AF631" s="2"/>
     </row>
-    <row r="632" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -22609,7 +22609,7 @@
       <c r="AE632" s="2"/>
       <c r="AF632" s="2"/>
     </row>
-    <row r="633" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -22643,7 +22643,7 @@
       <c r="AE633" s="2"/>
       <c r="AF633" s="2"/>
     </row>
-    <row r="634" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -22677,7 +22677,7 @@
       <c r="AE634" s="2"/>
       <c r="AF634" s="2"/>
     </row>
-    <row r="635" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -22711,7 +22711,7 @@
       <c r="AE635" s="2"/>
       <c r="AF635" s="2"/>
     </row>
-    <row r="636" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -22745,7 +22745,7 @@
       <c r="AE636" s="2"/>
       <c r="AF636" s="2"/>
     </row>
-    <row r="637" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -22779,7 +22779,7 @@
       <c r="AE637" s="2"/>
       <c r="AF637" s="2"/>
     </row>
-    <row r="638" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -22813,7 +22813,7 @@
       <c r="AE638" s="2"/>
       <c r="AF638" s="2"/>
     </row>
-    <row r="639" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -22847,7 +22847,7 @@
       <c r="AE639" s="2"/>
       <c r="AF639" s="2"/>
     </row>
-    <row r="640" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -22881,7 +22881,7 @@
       <c r="AE640" s="2"/>
       <c r="AF640" s="2"/>
     </row>
-    <row r="641" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -22915,7 +22915,7 @@
       <c r="AE641" s="2"/>
       <c r="AF641" s="2"/>
     </row>
-    <row r="642" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -22949,7 +22949,7 @@
       <c r="AE642" s="2"/>
       <c r="AF642" s="2"/>
     </row>
-    <row r="643" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -22983,7 +22983,7 @@
       <c r="AE643" s="2"/>
       <c r="AF643" s="2"/>
     </row>
-    <row r="644" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -23017,7 +23017,7 @@
       <c r="AE644" s="2"/>
       <c r="AF644" s="2"/>
     </row>
-    <row r="645" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -23051,7 +23051,7 @@
       <c r="AE645" s="2"/>
       <c r="AF645" s="2"/>
     </row>
-    <row r="646" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -23085,7 +23085,7 @@
       <c r="AE646" s="2"/>
       <c r="AF646" s="2"/>
     </row>
-    <row r="647" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -23119,7 +23119,7 @@
       <c r="AE647" s="2"/>
       <c r="AF647" s="2"/>
     </row>
-    <row r="648" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -23153,7 +23153,7 @@
       <c r="AE648" s="2"/>
       <c r="AF648" s="2"/>
     </row>
-    <row r="649" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -23187,7 +23187,7 @@
       <c r="AE649" s="2"/>
       <c r="AF649" s="2"/>
     </row>
-    <row r="650" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -23221,7 +23221,7 @@
       <c r="AE650" s="2"/>
       <c r="AF650" s="2"/>
     </row>
-    <row r="651" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -23255,7 +23255,7 @@
       <c r="AE651" s="2"/>
       <c r="AF651" s="2"/>
     </row>
-    <row r="652" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -23289,7 +23289,7 @@
       <c r="AE652" s="2"/>
       <c r="AF652" s="2"/>
     </row>
-    <row r="653" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -23323,7 +23323,7 @@
       <c r="AE653" s="2"/>
       <c r="AF653" s="2"/>
     </row>
-    <row r="654" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -23357,7 +23357,7 @@
       <c r="AE654" s="2"/>
       <c r="AF654" s="2"/>
     </row>
-    <row r="655" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -23391,7 +23391,7 @@
       <c r="AE655" s="2"/>
       <c r="AF655" s="2"/>
     </row>
-    <row r="656" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -23425,7 +23425,7 @@
       <c r="AE656" s="2"/>
       <c r="AF656" s="2"/>
     </row>
-    <row r="657" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -23459,7 +23459,7 @@
       <c r="AE657" s="2"/>
       <c r="AF657" s="2"/>
     </row>
-    <row r="658" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -23493,7 +23493,7 @@
       <c r="AE658" s="2"/>
       <c r="AF658" s="2"/>
     </row>
-    <row r="659" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -23527,7 +23527,7 @@
       <c r="AE659" s="2"/>
       <c r="AF659" s="2"/>
     </row>
-    <row r="660" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -23561,7 +23561,7 @@
       <c r="AE660" s="2"/>
       <c r="AF660" s="2"/>
     </row>
-    <row r="661" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -23595,7 +23595,7 @@
       <c r="AE661" s="2"/>
       <c r="AF661" s="2"/>
     </row>
-    <row r="662" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -23629,7 +23629,7 @@
       <c r="AE662" s="2"/>
       <c r="AF662" s="2"/>
     </row>
-    <row r="663" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -23663,7 +23663,7 @@
       <c r="AE663" s="2"/>
       <c r="AF663" s="2"/>
     </row>
-    <row r="664" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -23697,7 +23697,7 @@
       <c r="AE664" s="2"/>
       <c r="AF664" s="2"/>
     </row>
-    <row r="665" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -23731,7 +23731,7 @@
       <c r="AE665" s="2"/>
       <c r="AF665" s="2"/>
     </row>
-    <row r="666" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -23765,7 +23765,7 @@
       <c r="AE666" s="2"/>
       <c r="AF666" s="2"/>
     </row>
-    <row r="667" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -23799,7 +23799,7 @@
       <c r="AE667" s="2"/>
       <c r="AF667" s="2"/>
     </row>
-    <row r="668" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -23833,7 +23833,7 @@
       <c r="AE668" s="2"/>
       <c r="AF668" s="2"/>
     </row>
-    <row r="669" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -23867,7 +23867,7 @@
       <c r="AE669" s="2"/>
       <c r="AF669" s="2"/>
     </row>
-    <row r="670" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -23901,7 +23901,7 @@
       <c r="AE670" s="2"/>
       <c r="AF670" s="2"/>
     </row>
-    <row r="671" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -23935,7 +23935,7 @@
       <c r="AE671" s="2"/>
       <c r="AF671" s="2"/>
     </row>
-    <row r="672" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -23969,7 +23969,7 @@
       <c r="AE672" s="2"/>
       <c r="AF672" s="2"/>
     </row>
-    <row r="673" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -24003,7 +24003,7 @@
       <c r="AE673" s="2"/>
       <c r="AF673" s="2"/>
     </row>
-    <row r="674" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -24037,7 +24037,7 @@
       <c r="AE674" s="2"/>
       <c r="AF674" s="2"/>
     </row>
-    <row r="675" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -24071,7 +24071,7 @@
       <c r="AE675" s="2"/>
       <c r="AF675" s="2"/>
     </row>
-    <row r="676" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -24105,7 +24105,7 @@
       <c r="AE676" s="2"/>
       <c r="AF676" s="2"/>
     </row>
-    <row r="677" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -24139,7 +24139,7 @@
       <c r="AE677" s="2"/>
       <c r="AF677" s="2"/>
     </row>
-    <row r="678" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -24173,7 +24173,7 @@
       <c r="AE678" s="2"/>
       <c r="AF678" s="2"/>
     </row>
-    <row r="679" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -24207,7 +24207,7 @@
       <c r="AE679" s="2"/>
       <c r="AF679" s="2"/>
     </row>
-    <row r="680" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -24241,7 +24241,7 @@
       <c r="AE680" s="2"/>
       <c r="AF680" s="2"/>
     </row>
-    <row r="681" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -24275,7 +24275,7 @@
       <c r="AE681" s="2"/>
       <c r="AF681" s="2"/>
     </row>
-    <row r="682" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -24309,7 +24309,7 @@
       <c r="AE682" s="2"/>
       <c r="AF682" s="2"/>
     </row>
-    <row r="683" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -24343,7 +24343,7 @@
       <c r="AE683" s="2"/>
       <c r="AF683" s="2"/>
     </row>
-    <row r="684" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -24377,7 +24377,7 @@
       <c r="AE684" s="2"/>
       <c r="AF684" s="2"/>
     </row>
-    <row r="685" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -24411,7 +24411,7 @@
       <c r="AE685" s="2"/>
       <c r="AF685" s="2"/>
     </row>
-    <row r="686" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -24445,7 +24445,7 @@
       <c r="AE686" s="2"/>
       <c r="AF686" s="2"/>
     </row>
-    <row r="687" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -24479,7 +24479,7 @@
       <c r="AE687" s="2"/>
       <c r="AF687" s="2"/>
     </row>
-    <row r="688" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -24513,7 +24513,7 @@
       <c r="AE688" s="2"/>
       <c r="AF688" s="2"/>
     </row>
-    <row r="689" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -24547,7 +24547,7 @@
       <c r="AE689" s="2"/>
       <c r="AF689" s="2"/>
     </row>
-    <row r="690" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -24581,7 +24581,7 @@
       <c r="AE690" s="2"/>
       <c r="AF690" s="2"/>
     </row>
-    <row r="691" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -24615,7 +24615,7 @@
       <c r="AE691" s="2"/>
       <c r="AF691" s="2"/>
     </row>
-    <row r="692" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -24649,7 +24649,7 @@
       <c r="AE692" s="2"/>
       <c r="AF692" s="2"/>
     </row>
-    <row r="693" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -24683,7 +24683,7 @@
       <c r="AE693" s="2"/>
       <c r="AF693" s="2"/>
     </row>
-    <row r="694" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -24717,7 +24717,7 @@
       <c r="AE694" s="2"/>
       <c r="AF694" s="2"/>
     </row>
-    <row r="695" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -24751,7 +24751,7 @@
       <c r="AE695" s="2"/>
       <c r="AF695" s="2"/>
     </row>
-    <row r="696" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -24785,7 +24785,7 @@
       <c r="AE696" s="2"/>
       <c r="AF696" s="2"/>
     </row>
-    <row r="697" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -24819,7 +24819,7 @@
       <c r="AE697" s="2"/>
       <c r="AF697" s="2"/>
     </row>
-    <row r="698" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -24853,7 +24853,7 @@
       <c r="AE698" s="2"/>
       <c r="AF698" s="2"/>
     </row>
-    <row r="699" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -24887,7 +24887,7 @@
       <c r="AE699" s="2"/>
       <c r="AF699" s="2"/>
     </row>
-    <row r="700" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -24921,7 +24921,7 @@
       <c r="AE700" s="2"/>
       <c r="AF700" s="2"/>
     </row>
-    <row r="701" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -24955,7 +24955,7 @@
       <c r="AE701" s="2"/>
       <c r="AF701" s="2"/>
     </row>
-    <row r="702" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -24989,7 +24989,7 @@
       <c r="AE702" s="2"/>
       <c r="AF702" s="2"/>
     </row>
-    <row r="703" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -25023,7 +25023,7 @@
       <c r="AE703" s="2"/>
       <c r="AF703" s="2"/>
     </row>
-    <row r="704" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -25057,7 +25057,7 @@
       <c r="AE704" s="2"/>
       <c r="AF704" s="2"/>
     </row>
-    <row r="705" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -25091,7 +25091,7 @@
       <c r="AE705" s="2"/>
       <c r="AF705" s="2"/>
     </row>
-    <row r="706" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -25125,7 +25125,7 @@
       <c r="AE706" s="2"/>
       <c r="AF706" s="2"/>
     </row>
-    <row r="707" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -25159,7 +25159,7 @@
       <c r="AE707" s="2"/>
       <c r="AF707" s="2"/>
     </row>
-    <row r="708" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -25193,7 +25193,7 @@
       <c r="AE708" s="2"/>
       <c r="AF708" s="2"/>
     </row>
-    <row r="709" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -25227,7 +25227,7 @@
       <c r="AE709" s="2"/>
       <c r="AF709" s="2"/>
     </row>
-    <row r="710" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -25261,7 +25261,7 @@
       <c r="AE710" s="2"/>
       <c r="AF710" s="2"/>
     </row>
-    <row r="711" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -25295,7 +25295,7 @@
       <c r="AE711" s="2"/>
       <c r="AF711" s="2"/>
     </row>
-    <row r="712" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -25329,7 +25329,7 @@
       <c r="AE712" s="2"/>
       <c r="AF712" s="2"/>
     </row>
-    <row r="713" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -25363,7 +25363,7 @@
       <c r="AE713" s="2"/>
       <c r="AF713" s="2"/>
     </row>
-    <row r="714" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -25397,7 +25397,7 @@
       <c r="AE714" s="2"/>
       <c r="AF714" s="2"/>
     </row>
-    <row r="715" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -25431,7 +25431,7 @@
       <c r="AE715" s="2"/>
       <c r="AF715" s="2"/>
     </row>
-    <row r="716" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -25465,7 +25465,7 @@
       <c r="AE716" s="2"/>
       <c r="AF716" s="2"/>
     </row>
-    <row r="717" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -25499,7 +25499,7 @@
       <c r="AE717" s="2"/>
       <c r="AF717" s="2"/>
     </row>
-    <row r="718" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -25533,7 +25533,7 @@
       <c r="AE718" s="2"/>
       <c r="AF718" s="2"/>
     </row>
-    <row r="719" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -25567,7 +25567,7 @@
       <c r="AE719" s="2"/>
       <c r="AF719" s="2"/>
     </row>
-    <row r="720" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -25601,7 +25601,7 @@
       <c r="AE720" s="2"/>
       <c r="AF720" s="2"/>
     </row>
-    <row r="721" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -25635,7 +25635,7 @@
       <c r="AE721" s="2"/>
       <c r="AF721" s="2"/>
     </row>
-    <row r="722" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -25669,7 +25669,7 @@
       <c r="AE722" s="2"/>
       <c r="AF722" s="2"/>
     </row>
-    <row r="723" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -25703,7 +25703,7 @@
       <c r="AE723" s="2"/>
       <c r="AF723" s="2"/>
     </row>
-    <row r="724" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -25737,7 +25737,7 @@
       <c r="AE724" s="2"/>
       <c r="AF724" s="2"/>
     </row>
-    <row r="725" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -25771,7 +25771,7 @@
       <c r="AE725" s="2"/>
       <c r="AF725" s="2"/>
     </row>
-    <row r="726" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -25805,7 +25805,7 @@
       <c r="AE726" s="2"/>
       <c r="AF726" s="2"/>
     </row>
-    <row r="727" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -25839,7 +25839,7 @@
       <c r="AE727" s="2"/>
       <c r="AF727" s="2"/>
     </row>
-    <row r="728" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -25873,7 +25873,7 @@
       <c r="AE728" s="2"/>
       <c r="AF728" s="2"/>
     </row>
-    <row r="729" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -25907,7 +25907,7 @@
       <c r="AE729" s="2"/>
       <c r="AF729" s="2"/>
     </row>
-    <row r="730" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -25941,7 +25941,7 @@
       <c r="AE730" s="2"/>
       <c r="AF730" s="2"/>
     </row>
-    <row r="731" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -25975,7 +25975,7 @@
       <c r="AE731" s="2"/>
       <c r="AF731" s="2"/>
     </row>
-    <row r="732" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -26009,7 +26009,7 @@
       <c r="AE732" s="2"/>
       <c r="AF732" s="2"/>
     </row>
-    <row r="733" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -26043,7 +26043,7 @@
       <c r="AE733" s="2"/>
       <c r="AF733" s="2"/>
     </row>
-    <row r="734" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -26077,7 +26077,7 @@
       <c r="AE734" s="2"/>
       <c r="AF734" s="2"/>
     </row>
-    <row r="735" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -26111,7 +26111,7 @@
       <c r="AE735" s="2"/>
       <c r="AF735" s="2"/>
     </row>
-    <row r="736" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -26145,7 +26145,7 @@
       <c r="AE736" s="2"/>
       <c r="AF736" s="2"/>
     </row>
-    <row r="737" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -26179,7 +26179,7 @@
       <c r="AE737" s="2"/>
       <c r="AF737" s="2"/>
     </row>
-    <row r="738" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -26213,7 +26213,7 @@
       <c r="AE738" s="2"/>
       <c r="AF738" s="2"/>
     </row>
-    <row r="739" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -26247,7 +26247,7 @@
       <c r="AE739" s="2"/>
       <c r="AF739" s="2"/>
     </row>
-    <row r="740" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -26281,7 +26281,7 @@
       <c r="AE740" s="2"/>
       <c r="AF740" s="2"/>
     </row>
-    <row r="741" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -26315,7 +26315,7 @@
       <c r="AE741" s="2"/>
       <c r="AF741" s="2"/>
     </row>
-    <row r="742" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -26349,7 +26349,7 @@
       <c r="AE742" s="2"/>
       <c r="AF742" s="2"/>
     </row>
-    <row r="743" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -26383,7 +26383,7 @@
       <c r="AE743" s="2"/>
       <c r="AF743" s="2"/>
     </row>
-    <row r="744" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -26417,7 +26417,7 @@
       <c r="AE744" s="2"/>
       <c r="AF744" s="2"/>
     </row>
-    <row r="745" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -26451,7 +26451,7 @@
       <c r="AE745" s="2"/>
       <c r="AF745" s="2"/>
     </row>
-    <row r="746" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -26485,7 +26485,7 @@
       <c r="AE746" s="2"/>
       <c r="AF746" s="2"/>
     </row>
-    <row r="747" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -26519,7 +26519,7 @@
       <c r="AE747" s="2"/>
       <c r="AF747" s="2"/>
     </row>
-    <row r="748" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -26553,7 +26553,7 @@
       <c r="AE748" s="2"/>
       <c r="AF748" s="2"/>
     </row>
-    <row r="749" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -26587,7 +26587,7 @@
       <c r="AE749" s="2"/>
       <c r="AF749" s="2"/>
     </row>
-    <row r="750" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -26621,7 +26621,7 @@
       <c r="AE750" s="2"/>
       <c r="AF750" s="2"/>
     </row>
-    <row r="751" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -26655,7 +26655,7 @@
       <c r="AE751" s="2"/>
       <c r="AF751" s="2"/>
     </row>
-    <row r="752" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -26689,7 +26689,7 @@
       <c r="AE752" s="2"/>
       <c r="AF752" s="2"/>
     </row>
-    <row r="753" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -26723,7 +26723,7 @@
       <c r="AE753" s="2"/>
       <c r="AF753" s="2"/>
     </row>
-    <row r="754" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -26757,7 +26757,7 @@
       <c r="AE754" s="2"/>
       <c r="AF754" s="2"/>
     </row>
-    <row r="755" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -26791,7 +26791,7 @@
       <c r="AE755" s="2"/>
       <c r="AF755" s="2"/>
     </row>
-    <row r="756" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -26825,7 +26825,7 @@
       <c r="AE756" s="2"/>
       <c r="AF756" s="2"/>
     </row>
-    <row r="757" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -26859,7 +26859,7 @@
       <c r="AE757" s="2"/>
       <c r="AF757" s="2"/>
     </row>
-    <row r="758" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -26893,7 +26893,7 @@
       <c r="AE758" s="2"/>
       <c r="AF758" s="2"/>
     </row>
-    <row r="759" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -26927,7 +26927,7 @@
       <c r="AE759" s="2"/>
       <c r="AF759" s="2"/>
     </row>
-    <row r="760" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -26961,7 +26961,7 @@
       <c r="AE760" s="2"/>
       <c r="AF760" s="2"/>
     </row>
-    <row r="761" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -26995,7 +26995,7 @@
       <c r="AE761" s="2"/>
       <c r="AF761" s="2"/>
     </row>
-    <row r="762" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -27029,7 +27029,7 @@
       <c r="AE762" s="2"/>
       <c r="AF762" s="2"/>
     </row>
-    <row r="763" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -27063,7 +27063,7 @@
       <c r="AE763" s="2"/>
       <c r="AF763" s="2"/>
     </row>
-    <row r="764" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -27097,7 +27097,7 @@
       <c r="AE764" s="2"/>
       <c r="AF764" s="2"/>
     </row>
-    <row r="765" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -27131,7 +27131,7 @@
       <c r="AE765" s="2"/>
       <c r="AF765" s="2"/>
     </row>
-    <row r="766" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -27165,7 +27165,7 @@
       <c r="AE766" s="2"/>
       <c r="AF766" s="2"/>
     </row>
-    <row r="767" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -27199,7 +27199,7 @@
       <c r="AE767" s="2"/>
       <c r="AF767" s="2"/>
     </row>
-    <row r="768" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -27233,7 +27233,7 @@
       <c r="AE768" s="2"/>
       <c r="AF768" s="2"/>
     </row>
-    <row r="769" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -27267,7 +27267,7 @@
       <c r="AE769" s="2"/>
       <c r="AF769" s="2"/>
     </row>
-    <row r="770" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -27301,7 +27301,7 @@
       <c r="AE770" s="2"/>
       <c r="AF770" s="2"/>
     </row>
-    <row r="771" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -27335,7 +27335,7 @@
       <c r="AE771" s="2"/>
       <c r="AF771" s="2"/>
     </row>
-    <row r="772" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -27369,7 +27369,7 @@
       <c r="AE772" s="2"/>
       <c r="AF772" s="2"/>
     </row>
-    <row r="773" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -27403,7 +27403,7 @@
       <c r="AE773" s="2"/>
       <c r="AF773" s="2"/>
     </row>
-    <row r="774" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -27437,7 +27437,7 @@
       <c r="AE774" s="2"/>
       <c r="AF774" s="2"/>
     </row>
-    <row r="775" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -27471,7 +27471,7 @@
       <c r="AE775" s="2"/>
       <c r="AF775" s="2"/>
     </row>
-    <row r="776" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -27505,7 +27505,7 @@
       <c r="AE776" s="2"/>
       <c r="AF776" s="2"/>
     </row>
-    <row r="777" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -27539,7 +27539,7 @@
       <c r="AE777" s="2"/>
       <c r="AF777" s="2"/>
     </row>
-    <row r="778" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -27573,7 +27573,7 @@
       <c r="AE778" s="2"/>
       <c r="AF778" s="2"/>
     </row>
-    <row r="779" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -27607,7 +27607,7 @@
       <c r="AE779" s="2"/>
       <c r="AF779" s="2"/>
     </row>
-    <row r="780" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -27641,7 +27641,7 @@
       <c r="AE780" s="2"/>
       <c r="AF780" s="2"/>
     </row>
-    <row r="781" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -27675,7 +27675,7 @@
       <c r="AE781" s="2"/>
       <c r="AF781" s="2"/>
     </row>
-    <row r="782" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -27709,7 +27709,7 @@
       <c r="AE782" s="2"/>
       <c r="AF782" s="2"/>
     </row>
-    <row r="783" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -27743,7 +27743,7 @@
       <c r="AE783" s="2"/>
       <c r="AF783" s="2"/>
     </row>
-    <row r="784" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -27777,7 +27777,7 @@
       <c r="AE784" s="2"/>
       <c r="AF784" s="2"/>
     </row>
-    <row r="785" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -27811,7 +27811,7 @@
       <c r="AE785" s="2"/>
       <c r="AF785" s="2"/>
     </row>
-    <row r="786" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -27845,7 +27845,7 @@
       <c r="AE786" s="2"/>
       <c r="AF786" s="2"/>
     </row>
-    <row r="787" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -27879,7 +27879,7 @@
       <c r="AE787" s="2"/>
       <c r="AF787" s="2"/>
     </row>
-    <row r="788" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -27913,7 +27913,7 @@
       <c r="AE788" s="2"/>
       <c r="AF788" s="2"/>
     </row>
-    <row r="789" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -27947,7 +27947,7 @@
       <c r="AE789" s="2"/>
       <c r="AF789" s="2"/>
     </row>
-    <row r="790" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -27981,7 +27981,7 @@
       <c r="AE790" s="2"/>
       <c r="AF790" s="2"/>
     </row>
-    <row r="791" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -28015,7 +28015,7 @@
       <c r="AE791" s="2"/>
       <c r="AF791" s="2"/>
     </row>
-    <row r="792" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -28049,7 +28049,7 @@
       <c r="AE792" s="2"/>
       <c r="AF792" s="2"/>
     </row>
-    <row r="793" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -28083,7 +28083,7 @@
       <c r="AE793" s="2"/>
       <c r="AF793" s="2"/>
     </row>
-    <row r="794" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -28117,7 +28117,7 @@
       <c r="AE794" s="2"/>
       <c r="AF794" s="2"/>
     </row>
-    <row r="795" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -28151,7 +28151,7 @@
       <c r="AE795" s="2"/>
       <c r="AF795" s="2"/>
     </row>
-    <row r="796" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -28185,7 +28185,7 @@
       <c r="AE796" s="2"/>
       <c r="AF796" s="2"/>
     </row>
-    <row r="797" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -28219,7 +28219,7 @@
       <c r="AE797" s="2"/>
       <c r="AF797" s="2"/>
     </row>
-    <row r="798" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -28253,7 +28253,7 @@
       <c r="AE798" s="2"/>
       <c r="AF798" s="2"/>
     </row>
-    <row r="799" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -28287,7 +28287,7 @@
       <c r="AE799" s="2"/>
       <c r="AF799" s="2"/>
     </row>
-    <row r="800" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -28321,7 +28321,7 @@
       <c r="AE800" s="2"/>
       <c r="AF800" s="2"/>
     </row>
-    <row r="801" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -28355,7 +28355,7 @@
       <c r="AE801" s="2"/>
       <c r="AF801" s="2"/>
     </row>
-    <row r="802" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -28389,7 +28389,7 @@
       <c r="AE802" s="2"/>
       <c r="AF802" s="2"/>
     </row>
-    <row r="803" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -28423,7 +28423,7 @@
       <c r="AE803" s="2"/>
       <c r="AF803" s="2"/>
     </row>
-    <row r="804" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -28457,7 +28457,7 @@
       <c r="AE804" s="2"/>
       <c r="AF804" s="2"/>
     </row>
-    <row r="805" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -28491,7 +28491,7 @@
       <c r="AE805" s="2"/>
       <c r="AF805" s="2"/>
     </row>
-    <row r="806" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -28525,7 +28525,7 @@
       <c r="AE806" s="2"/>
       <c r="AF806" s="2"/>
     </row>
-    <row r="807" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -28559,7 +28559,7 @@
       <c r="AE807" s="2"/>
       <c r="AF807" s="2"/>
     </row>
-    <row r="808" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -28593,7 +28593,7 @@
       <c r="AE808" s="2"/>
       <c r="AF808" s="2"/>
     </row>
-    <row r="809" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -28627,7 +28627,7 @@
       <c r="AE809" s="2"/>
       <c r="AF809" s="2"/>
     </row>
-    <row r="810" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -28661,7 +28661,7 @@
       <c r="AE810" s="2"/>
       <c r="AF810" s="2"/>
     </row>
-    <row r="811" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -28695,7 +28695,7 @@
       <c r="AE811" s="2"/>
       <c r="AF811" s="2"/>
     </row>
-    <row r="812" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -28729,7 +28729,7 @@
       <c r="AE812" s="2"/>
       <c r="AF812" s="2"/>
     </row>
-    <row r="813" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -28763,7 +28763,7 @@
       <c r="AE813" s="2"/>
       <c r="AF813" s="2"/>
     </row>
-    <row r="814" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -28797,7 +28797,7 @@
       <c r="AE814" s="2"/>
       <c r="AF814" s="2"/>
     </row>
-    <row r="815" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -28831,7 +28831,7 @@
       <c r="AE815" s="2"/>
       <c r="AF815" s="2"/>
     </row>
-    <row r="816" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -28865,7 +28865,7 @@
       <c r="AE816" s="2"/>
       <c r="AF816" s="2"/>
     </row>
-    <row r="817" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -28899,7 +28899,7 @@
       <c r="AE817" s="2"/>
       <c r="AF817" s="2"/>
     </row>
-    <row r="818" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -28933,7 +28933,7 @@
       <c r="AE818" s="2"/>
       <c r="AF818" s="2"/>
     </row>
-    <row r="819" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -28967,7 +28967,7 @@
       <c r="AE819" s="2"/>
       <c r="AF819" s="2"/>
     </row>
-    <row r="820" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -29001,7 +29001,7 @@
       <c r="AE820" s="2"/>
       <c r="AF820" s="2"/>
     </row>
-    <row r="821" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -29035,7 +29035,7 @@
       <c r="AE821" s="2"/>
       <c r="AF821" s="2"/>
     </row>
-    <row r="822" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -29069,7 +29069,7 @@
       <c r="AE822" s="2"/>
       <c r="AF822" s="2"/>
     </row>
-    <row r="823" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -29103,7 +29103,7 @@
       <c r="AE823" s="2"/>
       <c r="AF823" s="2"/>
     </row>
-    <row r="824" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -29137,7 +29137,7 @@
       <c r="AE824" s="2"/>
       <c r="AF824" s="2"/>
     </row>
-    <row r="825" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -29171,7 +29171,7 @@
       <c r="AE825" s="2"/>
       <c r="AF825" s="2"/>
     </row>
-    <row r="826" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -29205,7 +29205,7 @@
       <c r="AE826" s="2"/>
       <c r="AF826" s="2"/>
     </row>
-    <row r="827" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -29239,7 +29239,7 @@
       <c r="AE827" s="2"/>
       <c r="AF827" s="2"/>
     </row>
-    <row r="828" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -29273,7 +29273,7 @@
       <c r="AE828" s="2"/>
       <c r="AF828" s="2"/>
     </row>
-    <row r="829" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -29307,7 +29307,7 @@
       <c r="AE829" s="2"/>
       <c r="AF829" s="2"/>
     </row>
-    <row r="830" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -29341,7 +29341,7 @@
       <c r="AE830" s="2"/>
       <c r="AF830" s="2"/>
     </row>
-    <row r="831" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -29375,7 +29375,7 @@
       <c r="AE831" s="2"/>
       <c r="AF831" s="2"/>
     </row>
-    <row r="832" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -29409,7 +29409,7 @@
       <c r="AE832" s="2"/>
       <c r="AF832" s="2"/>
     </row>
-    <row r="833" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -29443,7 +29443,7 @@
       <c r="AE833" s="2"/>
       <c r="AF833" s="2"/>
     </row>
-    <row r="834" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -29477,7 +29477,7 @@
       <c r="AE834" s="2"/>
       <c r="AF834" s="2"/>
     </row>
-    <row r="835" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -29511,7 +29511,7 @@
       <c r="AE835" s="2"/>
       <c r="AF835" s="2"/>
     </row>
-    <row r="836" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -29545,7 +29545,7 @@
       <c r="AE836" s="2"/>
       <c r="AF836" s="2"/>
     </row>
-    <row r="837" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -29579,7 +29579,7 @@
       <c r="AE837" s="2"/>
       <c r="AF837" s="2"/>
     </row>
-    <row r="838" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -29613,7 +29613,7 @@
       <c r="AE838" s="2"/>
       <c r="AF838" s="2"/>
     </row>
-    <row r="839" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -29647,7 +29647,7 @@
       <c r="AE839" s="2"/>
       <c r="AF839" s="2"/>
     </row>
-    <row r="840" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -29681,7 +29681,7 @@
       <c r="AE840" s="2"/>
       <c r="AF840" s="2"/>
     </row>
-    <row r="841" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -29715,7 +29715,7 @@
       <c r="AE841" s="2"/>
       <c r="AF841" s="2"/>
     </row>
-    <row r="842" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -29749,7 +29749,7 @@
       <c r="AE842" s="2"/>
       <c r="AF842" s="2"/>
     </row>
-    <row r="843" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -29783,7 +29783,7 @@
       <c r="AE843" s="2"/>
       <c r="AF843" s="2"/>
     </row>
-    <row r="844" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -29817,7 +29817,7 @@
       <c r="AE844" s="2"/>
       <c r="AF844" s="2"/>
     </row>
-    <row r="845" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -29851,7 +29851,7 @@
       <c r="AE845" s="2"/>
       <c r="AF845" s="2"/>
     </row>
-    <row r="846" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -29885,7 +29885,7 @@
       <c r="AE846" s="2"/>
       <c r="AF846" s="2"/>
     </row>
-    <row r="847" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -29919,7 +29919,7 @@
       <c r="AE847" s="2"/>
       <c r="AF847" s="2"/>
     </row>
-    <row r="848" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -29953,7 +29953,7 @@
       <c r="AE848" s="2"/>
       <c r="AF848" s="2"/>
     </row>
-    <row r="849" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -29987,7 +29987,7 @@
       <c r="AE849" s="2"/>
       <c r="AF849" s="2"/>
     </row>
-    <row r="850" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -30021,7 +30021,7 @@
       <c r="AE850" s="2"/>
       <c r="AF850" s="2"/>
     </row>
-    <row r="851" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -30055,7 +30055,7 @@
       <c r="AE851" s="2"/>
       <c r="AF851" s="2"/>
     </row>
-    <row r="852" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -30089,7 +30089,7 @@
       <c r="AE852" s="2"/>
       <c r="AF852" s="2"/>
     </row>
-    <row r="853" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -30123,7 +30123,7 @@
       <c r="AE853" s="2"/>
       <c r="AF853" s="2"/>
     </row>
-    <row r="854" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -30157,7 +30157,7 @@
       <c r="AE854" s="2"/>
       <c r="AF854" s="2"/>
     </row>
-    <row r="855" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -30191,7 +30191,7 @@
       <c r="AE855" s="2"/>
       <c r="AF855" s="2"/>
     </row>
-    <row r="856" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -30225,7 +30225,7 @@
       <c r="AE856" s="2"/>
       <c r="AF856" s="2"/>
     </row>
-    <row r="857" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -30259,7 +30259,7 @@
       <c r="AE857" s="2"/>
       <c r="AF857" s="2"/>
     </row>
-    <row r="858" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -30293,7 +30293,7 @@
       <c r="AE858" s="2"/>
       <c r="AF858" s="2"/>
     </row>
-    <row r="859" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -30327,7 +30327,7 @@
       <c r="AE859" s="2"/>
       <c r="AF859" s="2"/>
     </row>
-    <row r="860" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -30361,7 +30361,7 @@
       <c r="AE860" s="2"/>
       <c r="AF860" s="2"/>
     </row>
-    <row r="861" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -30395,7 +30395,7 @@
       <c r="AE861" s="2"/>
       <c r="AF861" s="2"/>
     </row>
-    <row r="862" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -30429,7 +30429,7 @@
       <c r="AE862" s="2"/>
       <c r="AF862" s="2"/>
     </row>
-    <row r="863" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -30463,7 +30463,7 @@
       <c r="AE863" s="2"/>
       <c r="AF863" s="2"/>
     </row>
-    <row r="864" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -30497,7 +30497,7 @@
       <c r="AE864" s="2"/>
       <c r="AF864" s="2"/>
     </row>
-    <row r="865" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -30531,7 +30531,7 @@
       <c r="AE865" s="2"/>
       <c r="AF865" s="2"/>
     </row>
-    <row r="866" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -30565,7 +30565,7 @@
       <c r="AE866" s="2"/>
       <c r="AF866" s="2"/>
     </row>
-    <row r="867" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -30599,7 +30599,7 @@
       <c r="AE867" s="2"/>
       <c r="AF867" s="2"/>
     </row>
-    <row r="868" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -30633,7 +30633,7 @@
       <c r="AE868" s="2"/>
       <c r="AF868" s="2"/>
     </row>
-    <row r="869" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -30667,7 +30667,7 @@
       <c r="AE869" s="2"/>
       <c r="AF869" s="2"/>
     </row>
-    <row r="870" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -30701,7 +30701,7 @@
       <c r="AE870" s="2"/>
       <c r="AF870" s="2"/>
     </row>
-    <row r="871" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -30735,7 +30735,7 @@
       <c r="AE871" s="2"/>
       <c r="AF871" s="2"/>
     </row>
-    <row r="872" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -30769,7 +30769,7 @@
       <c r="AE872" s="2"/>
       <c r="AF872" s="2"/>
     </row>
-    <row r="873" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -30803,7 +30803,7 @@
       <c r="AE873" s="2"/>
       <c r="AF873" s="2"/>
     </row>
-    <row r="874" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -30837,7 +30837,7 @@
       <c r="AE874" s="2"/>
       <c r="AF874" s="2"/>
     </row>
-    <row r="875" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -30871,7 +30871,7 @@
       <c r="AE875" s="2"/>
       <c r="AF875" s="2"/>
     </row>
-    <row r="876" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -30905,7 +30905,7 @@
       <c r="AE876" s="2"/>
       <c r="AF876" s="2"/>
     </row>
-    <row r="877" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -30939,7 +30939,7 @@
       <c r="AE877" s="2"/>
       <c r="AF877" s="2"/>
     </row>
-    <row r="878" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -30973,7 +30973,7 @@
       <c r="AE878" s="2"/>
       <c r="AF878" s="2"/>
     </row>
-    <row r="879" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -31007,7 +31007,7 @@
       <c r="AE879" s="2"/>
       <c r="AF879" s="2"/>
     </row>
-    <row r="880" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -31041,7 +31041,7 @@
       <c r="AE880" s="2"/>
       <c r="AF880" s="2"/>
     </row>
-    <row r="881" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -31075,7 +31075,7 @@
       <c r="AE881" s="2"/>
       <c r="AF881" s="2"/>
     </row>
-    <row r="882" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -31109,7 +31109,7 @@
       <c r="AE882" s="2"/>
       <c r="AF882" s="2"/>
     </row>
-    <row r="883" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -31143,7 +31143,7 @@
       <c r="AE883" s="2"/>
       <c r="AF883" s="2"/>
     </row>
-    <row r="884" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -31177,7 +31177,7 @@
       <c r="AE884" s="2"/>
       <c r="AF884" s="2"/>
     </row>
-    <row r="885" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -31211,7 +31211,7 @@
       <c r="AE885" s="2"/>
       <c r="AF885" s="2"/>
     </row>
-    <row r="886" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -31245,7 +31245,7 @@
       <c r="AE886" s="2"/>
       <c r="AF886" s="2"/>
     </row>
-    <row r="887" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -31279,7 +31279,7 @@
       <c r="AE887" s="2"/>
       <c r="AF887" s="2"/>
     </row>
-    <row r="888" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -31313,7 +31313,7 @@
       <c r="AE888" s="2"/>
       <c r="AF888" s="2"/>
     </row>
-    <row r="889" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -31347,7 +31347,7 @@
       <c r="AE889" s="2"/>
       <c r="AF889" s="2"/>
     </row>
-    <row r="890" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -31381,7 +31381,7 @@
       <c r="AE890" s="2"/>
       <c r="AF890" s="2"/>
     </row>
-    <row r="891" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -31415,7 +31415,7 @@
       <c r="AE891" s="2"/>
       <c r="AF891" s="2"/>
     </row>
-    <row r="892" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -31449,7 +31449,7 @@
       <c r="AE892" s="2"/>
       <c r="AF892" s="2"/>
     </row>
-    <row r="893" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -31483,7 +31483,7 @@
       <c r="AE893" s="2"/>
       <c r="AF893" s="2"/>
     </row>
-    <row r="894" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -31517,7 +31517,7 @@
       <c r="AE894" s="2"/>
       <c r="AF894" s="2"/>
     </row>
-    <row r="895" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -31551,7 +31551,7 @@
       <c r="AE895" s="2"/>
       <c r="AF895" s="2"/>
     </row>
-    <row r="896" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -31585,7 +31585,7 @@
       <c r="AE896" s="2"/>
       <c r="AF896" s="2"/>
     </row>
-    <row r="897" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -31619,7 +31619,7 @@
       <c r="AE897" s="2"/>
       <c r="AF897" s="2"/>
     </row>
-    <row r="898" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -31653,7 +31653,7 @@
       <c r="AE898" s="2"/>
       <c r="AF898" s="2"/>
     </row>
-    <row r="899" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -31687,7 +31687,7 @@
       <c r="AE899" s="2"/>
       <c r="AF899" s="2"/>
     </row>
-    <row r="900" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -31721,7 +31721,7 @@
       <c r="AE900" s="2"/>
       <c r="AF900" s="2"/>
     </row>
-    <row r="901" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -31755,7 +31755,7 @@
       <c r="AE901" s="2"/>
       <c r="AF901" s="2"/>
     </row>
-    <row r="902" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -31789,7 +31789,7 @@
       <c r="AE902" s="2"/>
       <c r="AF902" s="2"/>
     </row>
-    <row r="903" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -31823,7 +31823,7 @@
       <c r="AE903" s="2"/>
       <c r="AF903" s="2"/>
     </row>
-    <row r="904" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -31857,7 +31857,7 @@
       <c r="AE904" s="2"/>
       <c r="AF904" s="2"/>
     </row>
-    <row r="905" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -31891,7 +31891,7 @@
       <c r="AE905" s="2"/>
       <c r="AF905" s="2"/>
     </row>
-    <row r="906" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -31925,7 +31925,7 @@
       <c r="AE906" s="2"/>
       <c r="AF906" s="2"/>
     </row>
-    <row r="907" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -31959,7 +31959,7 @@
       <c r="AE907" s="2"/>
       <c r="AF907" s="2"/>
     </row>
-    <row r="908" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -31993,7 +31993,7 @@
       <c r="AE908" s="2"/>
       <c r="AF908" s="2"/>
     </row>
-    <row r="909" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -32027,7 +32027,7 @@
       <c r="AE909" s="2"/>
       <c r="AF909" s="2"/>
     </row>
-    <row r="910" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -32061,7 +32061,7 @@
       <c r="AE910" s="2"/>
       <c r="AF910" s="2"/>
     </row>
-    <row r="911" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -32095,7 +32095,7 @@
       <c r="AE911" s="2"/>
       <c r="AF911" s="2"/>
     </row>
-    <row r="912" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -32129,7 +32129,7 @@
       <c r="AE912" s="2"/>
       <c r="AF912" s="2"/>
     </row>
-    <row r="913" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -32163,7 +32163,7 @@
       <c r="AE913" s="2"/>
       <c r="AF913" s="2"/>
     </row>
-    <row r="914" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -32197,7 +32197,7 @@
       <c r="AE914" s="2"/>
       <c r="AF914" s="2"/>
     </row>
-    <row r="915" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -32231,7 +32231,7 @@
       <c r="AE915" s="2"/>
       <c r="AF915" s="2"/>
     </row>
-    <row r="916" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -32265,7 +32265,7 @@
       <c r="AE916" s="2"/>
       <c r="AF916" s="2"/>
     </row>
-    <row r="917" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -32299,7 +32299,7 @@
       <c r="AE917" s="2"/>
       <c r="AF917" s="2"/>
     </row>
-    <row r="918" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -32333,7 +32333,7 @@
       <c r="AE918" s="2"/>
       <c r="AF918" s="2"/>
     </row>
-    <row r="919" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -32367,7 +32367,7 @@
       <c r="AE919" s="2"/>
       <c r="AF919" s="2"/>
     </row>
-    <row r="920" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -32401,7 +32401,7 @@
       <c r="AE920" s="2"/>
       <c r="AF920" s="2"/>
     </row>
-    <row r="921" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -32435,7 +32435,7 @@
       <c r="AE921" s="2"/>
       <c r="AF921" s="2"/>
     </row>
-    <row r="922" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -32469,7 +32469,7 @@
       <c r="AE922" s="2"/>
       <c r="AF922" s="2"/>
     </row>
-    <row r="923" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -32503,7 +32503,7 @@
       <c r="AE923" s="2"/>
       <c r="AF923" s="2"/>
     </row>
-    <row r="924" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -32537,7 +32537,7 @@
       <c r="AE924" s="2"/>
       <c r="AF924" s="2"/>
     </row>
-    <row r="925" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -32571,7 +32571,7 @@
       <c r="AE925" s="2"/>
       <c r="AF925" s="2"/>
     </row>
-    <row r="926" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -32605,7 +32605,7 @@
       <c r="AE926" s="2"/>
       <c r="AF926" s="2"/>
     </row>
-    <row r="927" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -32639,7 +32639,7 @@
       <c r="AE927" s="2"/>
       <c r="AF927" s="2"/>
     </row>
-    <row r="928" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -32673,7 +32673,7 @@
       <c r="AE928" s="2"/>
       <c r="AF928" s="2"/>
     </row>
-    <row r="929" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -32707,7 +32707,7 @@
       <c r="AE929" s="2"/>
       <c r="AF929" s="2"/>
     </row>
-    <row r="930" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -32741,7 +32741,7 @@
       <c r="AE930" s="2"/>
       <c r="AF930" s="2"/>
     </row>
-    <row r="931" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -32775,7 +32775,7 @@
       <c r="AE931" s="2"/>
       <c r="AF931" s="2"/>
     </row>
-    <row r="932" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -32809,7 +32809,7 @@
       <c r="AE932" s="2"/>
       <c r="AF932" s="2"/>
     </row>
-    <row r="933" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -32843,7 +32843,7 @@
       <c r="AE933" s="2"/>
       <c r="AF933" s="2"/>
     </row>
-    <row r="934" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -32877,7 +32877,7 @@
       <c r="AE934" s="2"/>
       <c r="AF934" s="2"/>
     </row>
-    <row r="935" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -32911,7 +32911,7 @@
       <c r="AE935" s="2"/>
       <c r="AF935" s="2"/>
     </row>
-    <row r="936" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -32945,7 +32945,7 @@
       <c r="AE936" s="2"/>
       <c r="AF936" s="2"/>
     </row>
-    <row r="937" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -32979,7 +32979,7 @@
       <c r="AE937" s="2"/>
       <c r="AF937" s="2"/>
     </row>
-    <row r="938" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -33013,7 +33013,7 @@
       <c r="AE938" s="2"/>
       <c r="AF938" s="2"/>
     </row>
-    <row r="939" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -33047,7 +33047,7 @@
       <c r="AE939" s="2"/>
       <c r="AF939" s="2"/>
     </row>
-    <row r="940" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -33081,7 +33081,7 @@
       <c r="AE940" s="2"/>
       <c r="AF940" s="2"/>
     </row>
-    <row r="941" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -33115,7 +33115,7 @@
       <c r="AE941" s="2"/>
       <c r="AF941" s="2"/>
     </row>
-    <row r="942" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -33149,7 +33149,7 @@
       <c r="AE942" s="2"/>
       <c r="AF942" s="2"/>
     </row>
-    <row r="943" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -33183,7 +33183,7 @@
       <c r="AE943" s="2"/>
       <c r="AF943" s="2"/>
     </row>
-    <row r="944" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -33217,7 +33217,7 @@
       <c r="AE944" s="2"/>
       <c r="AF944" s="2"/>
     </row>
-    <row r="945" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -33251,7 +33251,7 @@
       <c r="AE945" s="2"/>
       <c r="AF945" s="2"/>
     </row>
-    <row r="946" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -33285,7 +33285,7 @@
       <c r="AE946" s="2"/>
       <c r="AF946" s="2"/>
     </row>
-    <row r="947" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -33319,7 +33319,7 @@
       <c r="AE947" s="2"/>
       <c r="AF947" s="2"/>
     </row>
-    <row r="948" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -33353,7 +33353,7 @@
       <c r="AE948" s="2"/>
       <c r="AF948" s="2"/>
     </row>
-    <row r="949" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -33387,7 +33387,7 @@
       <c r="AE949" s="2"/>
       <c r="AF949" s="2"/>
     </row>
-    <row r="950" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -33421,7 +33421,7 @@
       <c r="AE950" s="2"/>
       <c r="AF950" s="2"/>
     </row>
-    <row r="951" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -33455,7 +33455,7 @@
       <c r="AE951" s="2"/>
       <c r="AF951" s="2"/>
     </row>
-    <row r="952" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -33489,7 +33489,7 @@
       <c r="AE952" s="2"/>
       <c r="AF952" s="2"/>
     </row>
-    <row r="953" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -33523,7 +33523,7 @@
       <c r="AE953" s="2"/>
       <c r="AF953" s="2"/>
     </row>
-    <row r="954" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -33557,7 +33557,7 @@
       <c r="AE954" s="2"/>
       <c r="AF954" s="2"/>
     </row>
-    <row r="955" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -33591,7 +33591,7 @@
       <c r="AE955" s="2"/>
       <c r="AF955" s="2"/>
     </row>
-    <row r="956" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -33625,7 +33625,7 @@
       <c r="AE956" s="2"/>
       <c r="AF956" s="2"/>
     </row>
-    <row r="957" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -33659,7 +33659,7 @@
       <c r="AE957" s="2"/>
       <c r="AF957" s="2"/>
     </row>
-    <row r="958" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -33693,7 +33693,7 @@
       <c r="AE958" s="2"/>
       <c r="AF958" s="2"/>
     </row>
-    <row r="959" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -33727,7 +33727,7 @@
       <c r="AE959" s="2"/>
       <c r="AF959" s="2"/>
     </row>
-    <row r="960" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -33761,7 +33761,7 @@
       <c r="AE960" s="2"/>
       <c r="AF960" s="2"/>
     </row>
-    <row r="961" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -33795,7 +33795,7 @@
       <c r="AE961" s="2"/>
       <c r="AF961" s="2"/>
     </row>
-    <row r="962" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -33829,7 +33829,7 @@
       <c r="AE962" s="2"/>
       <c r="AF962" s="2"/>
     </row>
-    <row r="963" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -33863,7 +33863,7 @@
       <c r="AE963" s="2"/>
       <c r="AF963" s="2"/>
     </row>
-    <row r="964" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -33897,7 +33897,7 @@
       <c r="AE964" s="2"/>
       <c r="AF964" s="2"/>
     </row>
-    <row r="965" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -33931,7 +33931,7 @@
       <c r="AE965" s="2"/>
       <c r="AF965" s="2"/>
     </row>
-    <row r="966" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -33965,7 +33965,7 @@
       <c r="AE966" s="2"/>
       <c r="AF966" s="2"/>
     </row>
-    <row r="967" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -33999,7 +33999,7 @@
       <c r="AE967" s="2"/>
       <c r="AF967" s="2"/>
     </row>
-    <row r="968" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -34033,7 +34033,7 @@
       <c r="AE968" s="2"/>
       <c r="AF968" s="2"/>
     </row>
-    <row r="969" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -34067,7 +34067,7 @@
       <c r="AE969" s="2"/>
       <c r="AF969" s="2"/>
     </row>
-    <row r="970" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -34101,7 +34101,7 @@
       <c r="AE970" s="2"/>
       <c r="AF970" s="2"/>
     </row>
-    <row r="971" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -34135,7 +34135,7 @@
       <c r="AE971" s="2"/>
       <c r="AF971" s="2"/>
     </row>
-    <row r="972" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -34169,7 +34169,7 @@
       <c r="AE972" s="2"/>
       <c r="AF972" s="2"/>
     </row>
-    <row r="973" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -34203,7 +34203,7 @@
       <c r="AE973" s="2"/>
       <c r="AF973" s="2"/>
     </row>
-    <row r="974" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -34237,7 +34237,7 @@
       <c r="AE974" s="2"/>
       <c r="AF974" s="2"/>
     </row>
-    <row r="975" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -34271,7 +34271,7 @@
       <c r="AE975" s="2"/>
       <c r="AF975" s="2"/>
     </row>
-    <row r="976" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -34305,7 +34305,7 @@
       <c r="AE976" s="2"/>
       <c r="AF976" s="2"/>
     </row>
-    <row r="977" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -34339,7 +34339,7 @@
       <c r="AE977" s="2"/>
       <c r="AF977" s="2"/>
     </row>
-    <row r="978" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -34373,7 +34373,7 @@
       <c r="AE978" s="2"/>
       <c r="AF978" s="2"/>
     </row>
-    <row r="979" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -34407,7 +34407,7 @@
       <c r="AE979" s="2"/>
       <c r="AF979" s="2"/>
     </row>
-    <row r="980" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -34441,7 +34441,7 @@
       <c r="AE980" s="2"/>
       <c r="AF980" s="2"/>
     </row>
-    <row r="981" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -34475,7 +34475,7 @@
       <c r="AE981" s="2"/>
       <c r="AF981" s="2"/>
     </row>
-    <row r="982" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -34509,7 +34509,7 @@
       <c r="AE982" s="2"/>
       <c r="AF982" s="2"/>
     </row>
-    <row r="983" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -34543,7 +34543,7 @@
       <c r="AE983" s="2"/>
       <c r="AF983" s="2"/>
     </row>
-    <row r="984" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -34577,7 +34577,7 @@
       <c r="AE984" s="2"/>
       <c r="AF984" s="2"/>
     </row>
-    <row r="985" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -34611,7 +34611,7 @@
       <c r="AE985" s="2"/>
       <c r="AF985" s="2"/>
     </row>
-    <row r="986" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -34645,7 +34645,7 @@
       <c r="AE986" s="2"/>
       <c r="AF986" s="2"/>
     </row>
-    <row r="987" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -34679,7 +34679,7 @@
       <c r="AE987" s="2"/>
       <c r="AF987" s="2"/>
     </row>
-    <row r="988" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -34713,7 +34713,7 @@
       <c r="AE988" s="2"/>
       <c r="AF988" s="2"/>
     </row>
-    <row r="989" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -34747,7 +34747,7 @@
       <c r="AE989" s="2"/>
       <c r="AF989" s="2"/>
     </row>
-    <row r="990" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -34781,7 +34781,7 @@
       <c r="AE990" s="2"/>
       <c r="AF990" s="2"/>
     </row>
-    <row r="991" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -34815,7 +34815,7 @@
       <c r="AE991" s="2"/>
       <c r="AF991" s="2"/>
     </row>
-    <row r="992" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -34849,7 +34849,7 @@
       <c r="AE992" s="2"/>
       <c r="AF992" s="2"/>
     </row>
-    <row r="993" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -34883,7 +34883,7 @@
       <c r="AE993" s="2"/>
       <c r="AF993" s="2"/>
     </row>
-    <row r="994" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -34917,7 +34917,7 @@
       <c r="AE994" s="2"/>
       <c r="AF994" s="2"/>
     </row>
-    <row r="995" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -34951,7 +34951,7 @@
       <c r="AE995" s="2"/>
       <c r="AF995" s="2"/>
     </row>
-    <row r="996" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -34985,7 +34985,7 @@
       <c r="AE996" s="2"/>
       <c r="AF996" s="2"/>
     </row>
-    <row r="997" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -35019,7 +35019,7 @@
       <c r="AE997" s="2"/>
       <c r="AF997" s="2"/>
     </row>
-    <row r="998" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -35053,7 +35053,7 @@
       <c r="AE998" s="2"/>
       <c r="AF998" s="2"/>
     </row>
-    <row r="999" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -35087,7 +35087,7 @@
       <c r="AE999" s="2"/>
       <c r="AF999" s="2"/>
     </row>
-    <row r="1000" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:32" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -35129,18 +35129,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35361,6 +35361,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -35373,14 +35381,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17071284-45F4-4900-9CB1-DFEFB5816274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCE10A-55DE-4C6A-B911-A9829A666FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,12 +427,6 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2024_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2024_Expenditures__c</t>
-  </si>
-  <si>
     <t>Project_End_Date__c</t>
   </si>
   <si>
@@ -453,6 +447,12 @@
     <t>REQUIRED if the project has started. 
 NOT REQUIRED if you selected "Not Started" for the "Status to Completion" question. 
 Start date  Valid Date - (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Q2_2024_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1042,10 @@
         <v>82</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>6</v>
@@ -1057,10 +1057,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>30</v>
@@ -1238,10 +1238,10 @@
         <v>83</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>14</v>
@@ -1336,10 +1336,10 @@
         <v>85</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>74</v>
@@ -37165,6 +37165,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -37381,12 +37387,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37397,6 +37397,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37415,23 +37432,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCE10A-55DE-4C6A-B911-A9829A666FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{88BCE10A-55DE-4C6A-B911-A9829A666FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEDF5B10-8580-4146-AC34-F228AC04FD71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,10 +449,10 @@
 Start date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q2_2024_Obligations__c</t>
+    <t>Q3_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2024_Expenditures__c</t>
+    <t>Q3_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37165,9 +37165,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37388,27 +37391,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37433,9 +37424,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project236BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{88BCE10A-55DE-4C6A-B911-A9829A666FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEDF5B10-8580-4146-AC34-F228AC04FD71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA6F4AE-F91F-4448-8E56-77BC444B02C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,10 +449,10 @@
 Start date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q3_2024_Obligations__c</t>
+    <t>Q4_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2024_Expenditures__c</t>
+    <t>Q4_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37165,12 +37165,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37391,15 +37388,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37424,18 +37433,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>